--- a/time2.xlsx
+++ b/time2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D482"/>
+  <dimension ref="A1:D592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.999234065971107</v>
+        <v>1.05624995328197</v>
       </c>
       <c r="C2" t="n">
-        <v>2.091358911303005</v>
+        <v>1.190689811900042</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.09212484533189813</v>
+        <v>-0.134439858618072</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.019943304973807</v>
+        <v>1.062018227629419</v>
       </c>
       <c r="C3" t="n">
-        <v>2.061230866292751</v>
+        <v>1.160025034633327</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.04128756131894384</v>
+        <v>-0.09800680700390751</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.025520049023255</v>
+        <v>1.073304207134919</v>
       </c>
       <c r="C4" t="n">
-        <v>2.101878162170291</v>
+        <v>1.126923652611418</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.07635811314703567</v>
+        <v>-0.05361944547649866</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.027195621643613</v>
+        <v>1.085809777211339</v>
       </c>
       <c r="C5" t="n">
-        <v>2.157269968071642</v>
+        <v>1.156407459696469</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.130074346428029</v>
+        <v>-0.07059768248513065</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.031094409741597</v>
+        <v>1.096177850364823</v>
       </c>
       <c r="C6" t="n">
-        <v>2.14593289131887</v>
+        <v>1.164553795479013</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1148384815772725</v>
+        <v>-0.06837594511419032</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.039115840742913</v>
+        <v>1.102162669288973</v>
       </c>
       <c r="C7" t="n">
-        <v>2.062820803618192</v>
+        <v>1.162595162345291</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.02370496287527946</v>
+        <v>-0.06043249305631848</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.083929041529047</v>
+        <v>1.104027493017639</v>
       </c>
       <c r="C8" t="n">
-        <v>2.214628545386147</v>
+        <v>1.174760127544056</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1306995038570999</v>
+        <v>-0.07073263452641698</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.113224505582936</v>
+        <v>1.133712195708054</v>
       </c>
       <c r="C9" t="n">
-        <v>2.114693057916186</v>
+        <v>1.192760220876748</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.001468552333249384</v>
+        <v>-0.05904802516869379</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.131143940080388</v>
+        <v>1.138883426527917</v>
       </c>
       <c r="C10" t="n">
-        <v>2.171356137998322</v>
+        <v>1.187402671089717</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0402121979179344</v>
+        <v>-0.04851924456180035</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.138261178872733</v>
+        <v>1.148454066212403</v>
       </c>
       <c r="C11" t="n">
-        <v>2.201536138720447</v>
+        <v>1.155601085587943</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.06327495984771403</v>
+        <v>-0.007147019375539632</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.188466841851391</v>
+        <v>1.15253516356332</v>
       </c>
       <c r="C12" t="n">
-        <v>2.195535780239906</v>
+        <v>1.165227026569045</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.007068938388515189</v>
+        <v>-0.01269186300572533</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.197803813386392</v>
+        <v>1.153878919646918</v>
       </c>
       <c r="C13" t="n">
-        <v>2.220719691011154</v>
+        <v>1.193348617686973</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.02291587762476199</v>
+        <v>-0.0394696980400544</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.20689778826213</v>
+        <v>1.226058177085264</v>
       </c>
       <c r="C14" t="n">
-        <v>2.324855545707927</v>
+        <v>1.164956615051539</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1179577574457964</v>
+        <v>0.06110156203372541</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2.212050776764492</v>
+        <v>8.463782795744017</v>
       </c>
       <c r="C15" t="n">
-        <v>2.33255522753593</v>
+        <v>8.486831445381164</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1205044507714379</v>
+        <v>-0.02304864963714692</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2.261918110413721</v>
+        <v>8.46833160839803</v>
       </c>
       <c r="C16" t="n">
-        <v>2.39852117623421</v>
+        <v>8.513095438867921</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1366030658204886</v>
+        <v>-0.04476383046989163</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2.265800836482448</v>
+        <v>8.469165605643038</v>
       </c>
       <c r="C17" t="n">
-        <v>2.300715797822072</v>
+        <v>8.497813388692734</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.03491496133962402</v>
+        <v>-0.02864778304969562</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2.299780192022487</v>
+        <v>8.47679762049712</v>
       </c>
       <c r="C18" t="n">
-        <v>2.390352402640346</v>
+        <v>8.524581688058262</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.09057221061785992</v>
+        <v>-0.04778406756114251</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2.30057157592216</v>
+        <v>8.508465577608805</v>
       </c>
       <c r="C19" t="n">
-        <v>2.30257737955196</v>
+        <v>8.521341815038701</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.002005803629799185</v>
+        <v>-0.01287623742989652</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2.325627213666253</v>
+        <v>8.52447681052446</v>
       </c>
       <c r="C20" t="n">
-        <v>2.386750322748718</v>
+        <v>8.532527039581737</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.0611231090824651</v>
+        <v>-0.008050229057277036</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2.339127323671699</v>
+        <v>8.537105933387791</v>
       </c>
       <c r="C21" t="n">
-        <v>2.254104750834937</v>
+        <v>8.555934836003036</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08502257283676196</v>
+        <v>-0.01882890261524572</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2.345327475572735</v>
+        <v>8.548864070430669</v>
       </c>
       <c r="C22" t="n">
-        <v>2.38112139417226</v>
+        <v>8.574595805535388</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.03579391859952485</v>
+        <v>-0.02573173510471882</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2.349802417962251</v>
+        <v>8.560805191500496</v>
       </c>
       <c r="C23" t="n">
-        <v>2.364274525873896</v>
+        <v>8.568425438607782</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.01447210791164455</v>
+        <v>-0.007620247107286815</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.33706184971388</v>
+        <v>8.562205606765025</v>
       </c>
       <c r="C24" t="n">
-        <v>4.478518033074492</v>
+        <v>8.572004712966448</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1414561833606118</v>
+        <v>-0.009799106201423768</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.372537405167676</v>
+        <v>8.572081016669772</v>
       </c>
       <c r="C25" t="n">
-        <v>4.454814255976814</v>
+        <v>8.573015155968209</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.08227685080913805</v>
+        <v>-0.0009341392984367758</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.417150183842174</v>
+        <v>8.572899922102701</v>
       </c>
       <c r="C26" t="n">
-        <v>4.49958004344685</v>
+        <v>8.59636007829714</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.08242985960467575</v>
+        <v>-0.02346015619443875</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.424443407553052</v>
+        <v>8.578134066530236</v>
       </c>
       <c r="C27" t="n">
-        <v>4.528835582771689</v>
+        <v>8.595465363609449</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1043921752186368</v>
+        <v>-0.01733129707921321</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.449730767301296</v>
+        <v>8.894376104980941</v>
       </c>
       <c r="C28" t="n">
-        <v>4.48192444833809</v>
+        <v>8.505053393054558</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.03219368103679354</v>
+        <v>0.3893227119263827</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.450577784342748</v>
+        <v>9.087012622470708</v>
       </c>
       <c r="C29" t="n">
-        <v>4.491318662131143</v>
+        <v>9.095811233679054</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.0407408777883953</v>
+        <v>-0.008798611208346685</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.472395776319173</v>
+        <v>9.11466043914611</v>
       </c>
       <c r="C30" t="n">
-        <v>4.482658869867211</v>
+        <v>9.182177605282279</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.01026309354803789</v>
+        <v>-0.06751716613616843</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.480110912539753</v>
+        <v>9.118128390123854</v>
       </c>
       <c r="C31" t="n">
-        <v>4.49526879609888</v>
+        <v>9.168580733142868</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.01515788355912662</v>
+        <v>-0.05045234301901402</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.486819647867669</v>
+        <v>9.121472883765721</v>
       </c>
       <c r="C32" t="n">
-        <v>4.516753304529728</v>
+        <v>9.133090898432894</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.0299336566620596</v>
+        <v>-0.01161801466717272</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5.947472606558413</v>
+        <v>9.129364166827905</v>
       </c>
       <c r="C33" t="n">
-        <v>6.040052488844663</v>
+        <v>9.214451067020331</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.09257988228625003</v>
+        <v>-0.08508690019242593</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>6.035723408156424</v>
+        <v>9.167630137869889</v>
       </c>
       <c r="C34" t="n">
-        <v>6.107401860404021</v>
+        <v>9.236748065839379</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.07167845224759706</v>
+        <v>-0.06911792796949001</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>6.043927583921566</v>
+        <v>9.182268832604549</v>
       </c>
       <c r="C35" t="n">
-        <v>6.155412067837132</v>
+        <v>9.232521622049543</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1114844839155662</v>
+        <v>-0.05025278944499334</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>6.06689053242514</v>
+        <v>9.184642239590746</v>
       </c>
       <c r="C36" t="n">
-        <v>6.133673776488854</v>
+        <v>9.187367241843521</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.06678324406371328</v>
+        <v>-0.00272500225277561</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6.078093297139195</v>
+        <v>9.200494610421321</v>
       </c>
       <c r="C37" t="n">
-        <v>6.132380116114721</v>
+        <v>9.214521326660485</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.0542868189755259</v>
+        <v>-0.01402671623916341</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6.100330313771011</v>
+        <v>9.854363030216584</v>
       </c>
       <c r="C38" t="n">
-        <v>6.111464141043461</v>
+        <v>9.932860459424152</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.01113382727244971</v>
+        <v>-0.07849742920756775</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>6.887951316123226</v>
+        <v>9.855482767201634</v>
       </c>
       <c r="C39" t="n">
-        <v>7.081357800867458</v>
+        <v>9.961089866199535</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.1934064847442318</v>
+        <v>-0.1056070989979006</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>6.910251949549428</v>
+        <v>9.860073380467817</v>
       </c>
       <c r="C40" t="n">
-        <v>7.024723074330539</v>
+        <v>9.909119964708383</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.1144711247811108</v>
+        <v>-0.04904658424056585</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>6.914764872239003</v>
+        <v>9.877521700996072</v>
       </c>
       <c r="C41" t="n">
-        <v>6.99586885090658</v>
+        <v>9.94657316392661</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.0811039786675769</v>
+        <v>-0.06905146293053832</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>6.950300464726294</v>
+        <v>9.88436944937666</v>
       </c>
       <c r="C42" t="n">
-        <v>7.030644671544251</v>
+        <v>9.918129388051932</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.08034420681795673</v>
+        <v>-0.03375993867527249</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>6.952682453209388</v>
+        <v>9.892185540885453</v>
       </c>
       <c r="C43" t="n">
-        <v>6.986388351811626</v>
+        <v>9.94408932458802</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.03370589860223738</v>
+        <v>-0.0519037837025671</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>6.958079091918126</v>
+        <v>9.915446740370747</v>
       </c>
       <c r="C44" t="n">
-        <v>7.102442457068221</v>
+        <v>9.942591878232644</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.1443633651500953</v>
+        <v>-0.02714513786189698</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1057,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>6.968146667371467</v>
+        <v>9.956471739322442</v>
       </c>
       <c r="C45" t="n">
-        <v>7.089505872865982</v>
+        <v>9.959441700458987</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.1213592054945147</v>
+        <v>-0.002969961136544796</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +1071,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>6.968210989153042</v>
+        <v>10.47516520349922</v>
       </c>
       <c r="C46" t="n">
-        <v>7.054033299368505</v>
+        <v>10.4773729140247</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.08582231021546249</v>
+        <v>-0.002207710525476969</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +1085,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>6.979475799538962</v>
+        <v>10.47863045403765</v>
       </c>
       <c r="C47" t="n">
-        <v>7.020662279564456</v>
+        <v>10.51650741471297</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.04118648002549374</v>
+        <v>-0.03787696067531954</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +1099,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>6.993317903167733</v>
+        <v>10.49671565415422</v>
       </c>
       <c r="C48" t="n">
-        <v>6.996482043668795</v>
+        <v>10.5016082092982</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.003164140501062285</v>
+        <v>-0.004892555143984012</v>
       </c>
     </row>
     <row r="49">
@@ -1113,13 +1113,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>7.014768524293505</v>
+        <v>10.50103078494874</v>
       </c>
       <c r="C49" t="n">
-        <v>7.015160490153284</v>
+        <v>10.53272183388509</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.0003919658597792974</v>
+        <v>-0.03169104893635577</v>
       </c>
     </row>
     <row r="50">
@@ -1127,13 +1127,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>7.799674825817156</v>
+        <v>10.50633200143291</v>
       </c>
       <c r="C50" t="n">
-        <v>7.933522753871539</v>
+        <v>10.52002754469618</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.1338479280543829</v>
+        <v>-0.0136955432632675</v>
       </c>
     </row>
     <row r="51">
@@ -1141,13 +1141,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>7.801078753075243</v>
+        <v>10.509891895684</v>
       </c>
       <c r="C51" t="n">
-        <v>7.941492440082964</v>
+        <v>10.57450378911193</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.1404136870077215</v>
+        <v>-0.06461189342793183</v>
       </c>
     </row>
     <row r="52">
@@ -1155,13 +1155,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>7.819879214789338</v>
+        <v>10.52863639360561</v>
       </c>
       <c r="C52" t="n">
-        <v>7.831104401426292</v>
+        <v>10.56667793423735</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01122518663695438</v>
+        <v>-0.03804154063174181</v>
       </c>
     </row>
     <row r="53">
@@ -1169,13 +1169,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>7.855689468172376</v>
+        <v>10.55147899240856</v>
       </c>
       <c r="C53" t="n">
-        <v>7.923415005463952</v>
+        <v>10.57359424366785</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.06772553729157593</v>
+        <v>-0.02211525125929015</v>
       </c>
     </row>
     <row r="54">
@@ -1183,13 +1183,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>7.877156370182214</v>
+        <v>10.57143516226262</v>
       </c>
       <c r="C54" t="n">
-        <v>7.880148092469728</v>
+        <v>10.58421663559459</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.002991722287513987</v>
+        <v>-0.01278147333196777</v>
       </c>
     </row>
     <row r="55">
@@ -1197,13 +1197,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>7.892245387384322</v>
+        <v>11.10275537958484</v>
       </c>
       <c r="C55" t="n">
-        <v>7.926487859228783</v>
+        <v>11.11122972497827</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.03424247184446116</v>
+        <v>-0.008474345393421956</v>
       </c>
     </row>
     <row r="56">
@@ -1211,13 +1211,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>7.894395335882095</v>
+        <v>11.12912607197961</v>
       </c>
       <c r="C56" t="n">
-        <v>7.959332497416564</v>
+        <v>11.27448660846266</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.06493716153446893</v>
+        <v>-0.1453605364830501</v>
       </c>
     </row>
     <row r="57">
@@ -1225,13 +1225,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>7.905077153193679</v>
+        <v>11.14140862872812</v>
       </c>
       <c r="C57" t="n">
-        <v>7.940767036270984</v>
+        <v>11.2530209411275</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.03568988307730425</v>
+        <v>-0.1116123123993855</v>
       </c>
     </row>
     <row r="58">
@@ -1239,13 +1239,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>10.95844216893242</v>
+        <v>11.17782152740664</v>
       </c>
       <c r="C58" t="n">
-        <v>11.03505170476896</v>
+        <v>11.28004804325718</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.07660953583654795</v>
+        <v>-0.1022265158505427</v>
       </c>
     </row>
     <row r="59">
@@ -1253,13 +1253,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>10.9663005498551</v>
+        <v>11.19994559337208</v>
       </c>
       <c r="C59" t="n">
-        <v>11.09183665256462</v>
+        <v>11.26730679812593</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.1255361027095194</v>
+        <v>-0.06736120475384588</v>
       </c>
     </row>
     <row r="60">
@@ -1267,13 +1267,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>11.031649536423</v>
+        <v>11.2383129381703</v>
       </c>
       <c r="C60" t="n">
-        <v>11.15784314383279</v>
+        <v>11.24996983686556</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.1261936074097854</v>
+        <v>-0.01165689869526609</v>
       </c>
     </row>
     <row r="61">
@@ -1281,13 +1281,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>11.04478797399575</v>
+        <v>18.967763382494</v>
       </c>
       <c r="C61" t="n">
-        <v>11.04568112697874</v>
+        <v>19.03009060617102</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.0008931529829947493</v>
+        <v>-0.06232722367702337</v>
       </c>
     </row>
     <row r="62">
@@ -1295,13 +1295,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11.0592976919651</v>
+        <v>18.97296223421021</v>
       </c>
       <c r="C62" t="n">
-        <v>11.15917284558979</v>
+        <v>18.99932876398994</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.09987515362469068</v>
+        <v>-0.02636652977972531</v>
       </c>
     </row>
     <row r="63">
@@ -1309,13 +1309,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>11.07652537882265</v>
+        <v>18.97604847766861</v>
       </c>
       <c r="C63" t="n">
-        <v>11.15730143099963</v>
+        <v>19.06675548995649</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.08077605217698292</v>
+        <v>-0.0907070122878828</v>
       </c>
     </row>
     <row r="64">
@@ -1323,13 +1323,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>11.09263904785412</v>
+        <v>18.99052456493763</v>
       </c>
       <c r="C64" t="n">
-        <v>11.14252278803019</v>
+        <v>19.09550872487511</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.049883740176071</v>
+        <v>-0.1049841599374837</v>
       </c>
     </row>
     <row r="65">
@@ -1337,13 +1337,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>11.13561712306811</v>
+        <v>18.991021537511</v>
       </c>
       <c r="C65" t="n">
-        <v>11.15069890804544</v>
+        <v>19.04719697551281</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.0150817849773226</v>
+        <v>-0.05617543800180869</v>
       </c>
     </row>
     <row r="66">
@@ -1351,13 +1351,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>12.07498043405366</v>
+        <v>18.99545232287409</v>
       </c>
       <c r="C66" t="n">
-        <v>12.1343483800632</v>
+        <v>19.06620584202305</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.0593679460095391</v>
+        <v>-0.07075351914896544</v>
       </c>
     </row>
     <row r="67">
@@ -1365,13 +1365,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>12.09184378198558</v>
+        <v>18.99753534017317</v>
       </c>
       <c r="C67" t="n">
-        <v>12.22683254236428</v>
+        <v>19.0117464733415</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.1349887603787003</v>
+        <v>-0.014211133168331</v>
       </c>
     </row>
     <row r="68">
@@ -1379,13 +1379,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>12.09184519845958</v>
+        <v>19.01588682062263</v>
       </c>
       <c r="C68" t="n">
-        <v>12.14359882778508</v>
+        <v>19.01857532045888</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.05175362932549454</v>
+        <v>-0.002688499836242642</v>
       </c>
     </row>
     <row r="69">
@@ -1393,13 +1393,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>12.10849341198944</v>
+        <v>19.0510322625283</v>
       </c>
       <c r="C69" t="n">
-        <v>12.11391896416914</v>
+        <v>19.10178029877506</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.00542555217970353</v>
+        <v>-0.0507480362467625</v>
       </c>
     </row>
     <row r="70">
@@ -1407,13 +1407,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>12.13777613118888</v>
+        <v>19.06230997730185</v>
       </c>
       <c r="C70" t="n">
-        <v>12.2302609194489</v>
+        <v>19.1116795767743</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.09248478826001616</v>
+        <v>-0.04936959947245256</v>
       </c>
     </row>
     <row r="71">
@@ -1421,13 +1421,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>12.18784895723387</v>
+        <v>19.09385858543038</v>
       </c>
       <c r="C71" t="n">
-        <v>12.19304013806436</v>
+        <v>19.10044369761022</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.005191180830493636</v>
+        <v>-0.006585112179845254</v>
       </c>
     </row>
     <row r="72">
@@ -1435,13 +1435,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>16.0540697826584</v>
+        <v>19.09583863885723</v>
       </c>
       <c r="C72" t="n">
-        <v>16.15660253899616</v>
+        <v>19.10009957915158</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.1025327563377623</v>
+        <v>-0.004260940294347648</v>
       </c>
     </row>
     <row r="73">
@@ -1449,13 +1449,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>16.07610250913899</v>
+        <v>19.23972948902364</v>
       </c>
       <c r="C73" t="n">
-        <v>16.24225671550622</v>
+        <v>19.11878070133523</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.1661542063672314</v>
+        <v>0.1209487876884126</v>
       </c>
     </row>
     <row r="74">
@@ -1463,13 +1463,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>16.07878518579815</v>
+        <v>23.65189923966643</v>
       </c>
       <c r="C74" t="n">
-        <v>16.2394076805323</v>
+        <v>23.77117340218183</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.1606224947341488</v>
+        <v>-0.1192741625154063</v>
       </c>
     </row>
     <row r="75">
@@ -1477,13 +1477,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>16.1042822043755</v>
+        <v>23.6959901716127</v>
       </c>
       <c r="C75" t="n">
-        <v>16.24957495358744</v>
+        <v>23.74616713543331</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.1452927492119436</v>
+        <v>-0.05017696382060421</v>
       </c>
     </row>
     <row r="76">
@@ -1491,13 +1491,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>16.14853547538839</v>
+        <v>23.69869347283477</v>
       </c>
       <c r="C76" t="n">
-        <v>16.1599321310611</v>
+        <v>23.81202910828641</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.01139665567270853</v>
+        <v>-0.1133356354516408</v>
       </c>
     </row>
     <row r="77">
@@ -1505,13 +1505,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>16.17019123635058</v>
+        <v>23.73097506185082</v>
       </c>
       <c r="C77" t="n">
-        <v>16.23172073708979</v>
+        <v>23.76060404519686</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.06152950073920493</v>
+        <v>-0.02962898334604347</v>
       </c>
     </row>
     <row r="78">
@@ -1519,13 +1519,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>16.187093451302</v>
+        <v>23.7670277911097</v>
       </c>
       <c r="C78" t="n">
-        <v>16.22641466622216</v>
+        <v>23.80401652147201</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.03932121492015384</v>
+        <v>-0.03698873036231376</v>
       </c>
     </row>
     <row r="79">
@@ -1533,13 +1533,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>16.20945749432337</v>
+        <v>23.77415698161722</v>
       </c>
       <c r="C79" t="n">
-        <v>16.24991446428856</v>
+        <v>23.80460240826259</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.04045696996518799</v>
+        <v>-0.03044542664537175</v>
       </c>
     </row>
     <row r="80">
@@ -1547,13 +1547,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>16.21521511948921</v>
+        <v>25.59429290708434</v>
       </c>
       <c r="C80" t="n">
-        <v>16.23722314438135</v>
+        <v>25.77672129345678</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.02200802489214126</v>
+        <v>-0.1824283863724467</v>
       </c>
     </row>
     <row r="81">
@@ -1561,13 +1561,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>16.59618526500532</v>
+        <v>25.66452595600021</v>
       </c>
       <c r="C81" t="n">
-        <v>16.60341939289272</v>
+        <v>25.73860713728581</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.007234127887393527</v>
+        <v>-0.07408118128560659</v>
       </c>
     </row>
     <row r="82">
@@ -1575,13 +1575,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>16.60501396921999</v>
+        <v>25.6834846992442</v>
       </c>
       <c r="C82" t="n">
-        <v>16.60995786258427</v>
+        <v>25.69242948441587</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.004943893364281138</v>
+        <v>-0.008944785171667746</v>
       </c>
     </row>
     <row r="83">
@@ -1589,13 +1589,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>16.63044417892523</v>
+        <v>25.68571732828969</v>
       </c>
       <c r="C83" t="n">
-        <v>16.76854358353312</v>
+        <v>25.77565241611988</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.1380994046078925</v>
+        <v>-0.08993508783018811</v>
       </c>
     </row>
     <row r="84">
@@ -1603,13 +1603,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>16.63998317455825</v>
+        <v>25.68683259333159</v>
       </c>
       <c r="C84" t="n">
-        <v>16.71916008268963</v>
+        <v>25.7098076348633</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.07917690813138023</v>
+        <v>-0.02297504153170138</v>
       </c>
     </row>
     <row r="85">
@@ -1617,13 +1617,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>16.64343189297583</v>
+        <v>25.69875723445718</v>
       </c>
       <c r="C85" t="n">
-        <v>16.68940542006937</v>
+        <v>25.71583480981457</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.04597352709354041</v>
+        <v>-0.01707757535739418</v>
       </c>
     </row>
     <row r="86">
@@ -1631,13 +1631,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>16.64494450272413</v>
+        <v>26.76879261123616</v>
       </c>
       <c r="C86" t="n">
-        <v>16.7946264073898</v>
+        <v>26.84114377395351</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.1496819046656697</v>
+        <v>-0.07235116271735009</v>
       </c>
     </row>
     <row r="87">
@@ -1645,13 +1645,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>16.65632695905802</v>
+        <v>26.79483286268728</v>
       </c>
       <c r="C87" t="n">
-        <v>16.67397685229814</v>
+        <v>26.83783050622901</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.01764989324011523</v>
+        <v>-0.04299764354173519</v>
       </c>
     </row>
     <row r="88">
@@ -1659,13 +1659,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>16.66722108886869</v>
+        <v>26.81256243032043</v>
       </c>
       <c r="C88" t="n">
-        <v>16.78460008514484</v>
+        <v>26.83165315652607</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.1173789962761553</v>
+        <v>-0.01909072620563634</v>
       </c>
     </row>
     <row r="89">
@@ -1673,13 +1673,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>16.67134908497264</v>
+        <v>26.8126281665226</v>
       </c>
       <c r="C89" t="n">
-        <v>16.70918383843349</v>
+        <v>26.88219649709037</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.03783475346084586</v>
+        <v>-0.06956833056776901</v>
       </c>
     </row>
     <row r="90">
@@ -1687,13 +1687,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>16.70858233966248</v>
+        <v>26.88767002595837</v>
       </c>
       <c r="C90" t="n">
-        <v>16.79585748531736</v>
+        <v>26.88904875789842</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.08727514565487837</v>
+        <v>-0.001378731940043565</v>
       </c>
     </row>
     <row r="91">
@@ -1701,13 +1701,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>16.71215965907956</v>
+        <v>27.65217702914885</v>
       </c>
       <c r="C91" t="n">
-        <v>16.73371319791438</v>
+        <v>27.76709566521861</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.02155353883482292</v>
+        <v>-0.1149186360697634</v>
       </c>
     </row>
     <row r="92">
@@ -1715,13 +1715,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>16.74332640181599</v>
+        <v>27.65236535644865</v>
       </c>
       <c r="C92" t="n">
-        <v>16.7841343501457</v>
+        <v>27.65853095970535</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.04080794832971435</v>
+        <v>-0.006165603256697239</v>
       </c>
     </row>
     <row r="93">
@@ -1729,13 +1729,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>16.77197651077527</v>
+        <v>27.65717814681783</v>
       </c>
       <c r="C93" t="n">
-        <v>16.67397652638667</v>
+        <v>27.72161374052389</v>
       </c>
       <c r="D93" t="n">
-        <v>0.09799998438860058</v>
+        <v>-0.06443559370605811</v>
       </c>
     </row>
     <row r="94">
@@ -1743,13 +1743,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>16.79371077621021</v>
+        <v>27.6662029804613</v>
       </c>
       <c r="C94" t="n">
-        <v>16.71659076477136</v>
+        <v>27.74208318909742</v>
       </c>
       <c r="D94" t="n">
-        <v>0.07712001143885061</v>
+        <v>-0.07588020863612144</v>
       </c>
     </row>
     <row r="95">
@@ -1757,13 +1757,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>21.23936156204499</v>
+        <v>27.6696425839098</v>
       </c>
       <c r="C95" t="n">
-        <v>21.38082993454573</v>
+        <v>27.69914713564241</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.1414683725007464</v>
+        <v>-0.02950455173261446</v>
       </c>
     </row>
     <row r="96">
@@ -1771,13 +1771,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>21.28554402800384</v>
+        <v>27.69702510195821</v>
       </c>
       <c r="C96" t="n">
-        <v>21.29767670717642</v>
+        <v>27.72165043303773</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.0121326791725771</v>
+        <v>-0.02462533107952325</v>
       </c>
     </row>
     <row r="97">
@@ -1785,13 +1785,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>21.30555696671346</v>
+        <v>27.71724102012856</v>
       </c>
       <c r="C97" t="n">
-        <v>21.31277221536386</v>
+        <v>27.75366349877849</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.007215248650403794</v>
+        <v>-0.03642247864993564</v>
       </c>
     </row>
     <row r="98">
@@ -1799,13 +1799,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>21.31217733831535</v>
+        <v>27.71918940793414</v>
       </c>
       <c r="C98" t="n">
-        <v>21.37655414480145</v>
+        <v>27.75656285807564</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.06437680648610211</v>
+        <v>-0.03737345014150151</v>
       </c>
     </row>
     <row r="99">
@@ -1813,13 +1813,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>21.34984582680023</v>
+        <v>27.75144429587213</v>
       </c>
       <c r="C99" t="n">
-        <v>21.37084395486421</v>
+        <v>27.77122333974674</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.02099812806397594</v>
+        <v>-0.01977904387461038</v>
       </c>
     </row>
     <row r="100">
@@ -1827,13 +1827,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>21.82196062451862</v>
+        <v>28.80200515764812</v>
       </c>
       <c r="C100" t="n">
-        <v>21.94927430882124</v>
+        <v>28.91317756619829</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.1273136843026244</v>
+        <v>-0.1111724085501749</v>
       </c>
     </row>
     <row r="101">
@@ -1841,13 +1841,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>21.84572997813995</v>
+        <v>28.82598557511597</v>
       </c>
       <c r="C101" t="n">
-        <v>21.99177416265823</v>
+        <v>28.89776351037897</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.1460441845182743</v>
+        <v>-0.07177793526300036</v>
       </c>
     </row>
     <row r="102">
@@ -1855,13 +1855,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>21.87062816422883</v>
+        <v>28.8351240183779</v>
       </c>
       <c r="C102" t="n">
-        <v>21.88023194198702</v>
+        <v>28.8727053431753</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.00960377775818344</v>
+        <v>-0.03758132479739373</v>
       </c>
     </row>
     <row r="103">
@@ -1869,13 +1869,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>21.8840992035915</v>
+        <v>28.84261918281437</v>
       </c>
       <c r="C103" t="n">
-        <v>22.0141094297776</v>
+        <v>28.91308065799426</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.1300102261861014</v>
+        <v>-0.07046147517988999</v>
       </c>
     </row>
     <row r="104">
@@ -1883,13 +1883,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>21.88642578198687</v>
+        <v>28.85547970752927</v>
       </c>
       <c r="C104" t="n">
-        <v>22.00544359294785</v>
+        <v>28.95023211932193</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.1190178109609796</v>
+        <v>-0.09475241179266192</v>
       </c>
     </row>
     <row r="105">
@@ -1897,13 +1897,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>21.88961028595646</v>
+        <v>28.85752183304556</v>
       </c>
       <c r="C105" t="n">
-        <v>21.94481695148658</v>
+        <v>28.91331201414845</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.05520666553011466</v>
+        <v>-0.05579018110288914</v>
       </c>
     </row>
     <row r="106">
@@ -1911,13 +1911,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>21.89134593104567</v>
+        <v>28.87218916877265</v>
       </c>
       <c r="C106" t="n">
-        <v>22.01721930701087</v>
+        <v>28.87365605289078</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.1258733759651918</v>
+        <v>-0.001466884118134004</v>
       </c>
     </row>
     <row r="107">
@@ -1925,13 +1925,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>21.93000212575177</v>
+        <v>28.89782839162763</v>
       </c>
       <c r="C107" t="n">
-        <v>22.01133295276665</v>
+        <v>28.94189037982451</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.08133082701488803</v>
+        <v>-0.04406198819688711</v>
       </c>
     </row>
     <row r="108">
@@ -1939,13 +1939,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>22.00893097619946</v>
+        <v>28.90274265135221</v>
       </c>
       <c r="C108" t="n">
-        <v>22.01336551779925</v>
+        <v>28.9324187964502</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.004434541599792396</v>
+        <v>-0.02967614509798722</v>
       </c>
     </row>
     <row r="109">
@@ -1953,13 +1953,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>24.26902784849947</v>
+        <v>28.91682808155998</v>
       </c>
       <c r="C109" t="n">
-        <v>24.3512992038883</v>
+        <v>28.93393349023694</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.0822713553888299</v>
+        <v>-0.01710540867695798</v>
       </c>
     </row>
     <row r="110">
@@ -1967,13 +1967,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>24.27130099033742</v>
+        <v>29.00756935776742</v>
       </c>
       <c r="C110" t="n">
-        <v>24.32278497380747</v>
+        <v>28.96488281469895</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.05148398347004957</v>
+        <v>0.04268654306846642</v>
       </c>
     </row>
     <row r="111">
@@ -1981,13 +1981,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>24.27704630906356</v>
+        <v>29.24881383360047</v>
       </c>
       <c r="C111" t="n">
-        <v>24.31383827369883</v>
+        <v>29.27160878662492</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.03679196463527035</v>
+        <v>-0.02279495302445156</v>
       </c>
     </row>
     <row r="112">
@@ -1995,13 +1995,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>24.27990695188782</v>
+        <v>29.26258075293384</v>
       </c>
       <c r="C112" t="n">
-        <v>24.39505520735373</v>
+        <v>29.30356007903737</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.1151482554659076</v>
+        <v>-0.04097932610353539</v>
       </c>
     </row>
     <row r="113">
@@ -2009,13 +2009,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>24.31502158316825</v>
+        <v>29.26408278578133</v>
       </c>
       <c r="C113" t="n">
-        <v>24.45671100770413</v>
+        <v>29.27629983699318</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.1416894245358797</v>
+        <v>-0.01221705121184513</v>
       </c>
     </row>
     <row r="114">
@@ -2023,13 +2023,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>24.32899831658285</v>
+        <v>29.27725896664641</v>
       </c>
       <c r="C114" t="n">
-        <v>24.40468428613518</v>
+        <v>29.29801821127126</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.07568596955232465</v>
+        <v>-0.02075924462484835</v>
       </c>
     </row>
     <row r="115">
@@ -2037,13 +2037,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>24.32951534468343</v>
+        <v>29.27954488258275</v>
       </c>
       <c r="C115" t="n">
-        <v>24.34528315930649</v>
+        <v>29.32527614490033</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.01576781462305732</v>
+        <v>-0.0457312623175774</v>
       </c>
     </row>
     <row r="116">
@@ -2051,13 +2051,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>24.38960884489127</v>
+        <v>29.28162882125548</v>
       </c>
       <c r="C116" t="n">
-        <v>24.40072008844806</v>
+        <v>29.37214832497698</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.01111124355679749</v>
+        <v>-0.09051950372149875</v>
       </c>
     </row>
     <row r="117">
@@ -2065,13 +2065,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>24.44723275887143</v>
+        <v>29.30060778129903</v>
       </c>
       <c r="C117" t="n">
-        <v>24.45549466057372</v>
+        <v>29.36387479254417</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.008261901702297791</v>
+        <v>-0.063267011245145</v>
       </c>
     </row>
     <row r="118">
@@ -2079,13 +2079,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>24.55816665569892</v>
+        <v>29.30095946243657</v>
       </c>
       <c r="C118" t="n">
-        <v>24.43245249245302</v>
+        <v>29.33512959975027</v>
       </c>
       <c r="D118" t="n">
-        <v>0.1257141632459025</v>
+        <v>-0.03417013731369778</v>
       </c>
     </row>
     <row r="119">
@@ -2093,13 +2093,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>25.50929359494118</v>
+        <v>29.31537352037313</v>
       </c>
       <c r="C119" t="n">
-        <v>25.64731505123583</v>
+        <v>29.37123150178178</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.1380214562946485</v>
+        <v>-0.0558579814086535</v>
       </c>
     </row>
     <row r="120">
@@ -2107,13 +2107,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>25.53100635517884</v>
+        <v>29.31574567094857</v>
       </c>
       <c r="C120" t="n">
-        <v>25.56629175324201</v>
+        <v>29.32392874182198</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.03528539806317355</v>
+        <v>-0.008183070873410969</v>
       </c>
     </row>
     <row r="121">
@@ -2121,13 +2121,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>25.53947561050827</v>
+        <v>29.32629327005424</v>
       </c>
       <c r="C121" t="n">
-        <v>25.64497788789903</v>
+        <v>29.33761647395322</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.1055022773907659</v>
+        <v>-0.01132320389897501</v>
       </c>
     </row>
     <row r="122">
@@ -2135,13 +2135,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>25.54822684014597</v>
+        <v>29.33077844716131</v>
       </c>
       <c r="C122" t="n">
-        <v>25.68540115863167</v>
+        <v>29.35361855715404</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.1371743184857017</v>
+        <v>-0.02284010999273178</v>
       </c>
     </row>
     <row r="123">
@@ -2149,13 +2149,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>25.55784322628692</v>
+        <v>29.34699423912197</v>
       </c>
       <c r="C123" t="n">
-        <v>25.72989628066119</v>
+        <v>29.40718327399339</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.1720530543742704</v>
+        <v>-0.06018903487142069</v>
       </c>
     </row>
     <row r="124">
@@ -2163,13 +2163,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>25.5785093884234</v>
+        <v>29.34927071279342</v>
       </c>
       <c r="C124" t="n">
-        <v>25.66298219880905</v>
+        <v>29.42914587379761</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.0844728103856518</v>
+        <v>-0.0798751610041819</v>
       </c>
     </row>
     <row r="125">
@@ -2177,13 +2177,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>25.59777597746323</v>
+        <v>29.36161892424795</v>
       </c>
       <c r="C125" t="n">
-        <v>25.69067391133677</v>
+        <v>29.37095290451639</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.09289793387354095</v>
+        <v>-0.009333980268436903</v>
       </c>
     </row>
     <row r="126">
@@ -2191,13 +2191,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>25.60601085506709</v>
+        <v>29.37469363833032</v>
       </c>
       <c r="C126" t="n">
-        <v>25.6446855716705</v>
+        <v>29.40147458615851</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.03867471660340627</v>
+        <v>-0.02678094782819329</v>
       </c>
     </row>
     <row r="127">
@@ -2205,13 +2205,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>25.60948916214269</v>
+        <v>29.39636469643987</v>
       </c>
       <c r="C127" t="n">
-        <v>25.72736290484065</v>
+        <v>29.43421359719396</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.1178737426979559</v>
+        <v>-0.03784890075409564</v>
       </c>
     </row>
     <row r="128">
@@ -2219,13 +2219,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>25.62762460926703</v>
+        <v>33.46496474204034</v>
       </c>
       <c r="C128" t="n">
-        <v>25.70917981740032</v>
+        <v>33.6123852266503</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.08155520813329176</v>
+        <v>-0.1474204846099596</v>
       </c>
     </row>
     <row r="129">
@@ -2233,13 +2233,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>25.63880929317484</v>
+        <v>33.47900673784978</v>
       </c>
       <c r="C129" t="n">
-        <v>25.63425743286374</v>
+        <v>33.50414229638766</v>
       </c>
       <c r="D129" t="n">
-        <v>0.004551860311096334</v>
+        <v>-0.02513555853787608</v>
       </c>
     </row>
     <row r="130">
@@ -2247,13 +2247,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>25.65749387681091</v>
+        <v>33.51249960357599</v>
       </c>
       <c r="C130" t="n">
-        <v>25.6980245420547</v>
+        <v>33.60846030430064</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.0405306652437929</v>
+        <v>-0.09596070072465324</v>
       </c>
     </row>
     <row r="131">
@@ -2261,13 +2261,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>25.67219147229659</v>
+        <v>33.53890479950575</v>
       </c>
       <c r="C131" t="n">
-        <v>25.72381771086927</v>
+        <v>33.56233935385204</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.0516262385726769</v>
+        <v>-0.02343455434628794</v>
       </c>
     </row>
     <row r="132">
@@ -2275,13 +2275,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>25.76256176737407</v>
+        <v>33.55952896826476</v>
       </c>
       <c r="C132" t="n">
-        <v>25.68735596476941</v>
+        <v>33.57452099346402</v>
       </c>
       <c r="D132" t="n">
-        <v>0.07520580260465692</v>
+        <v>-0.01499202519925547</v>
       </c>
     </row>
     <row r="133">
@@ -2289,13 +2289,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>26.94405000827742</v>
+        <v>33.6071320299563</v>
       </c>
       <c r="C133" t="n">
-        <v>27.06550992021589</v>
+        <v>33.66206094445845</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.1214599119384765</v>
+        <v>-0.05492891450214898</v>
       </c>
     </row>
     <row r="134">
@@ -2303,13 +2303,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>26.94430661273947</v>
+        <v>33.60911966395871</v>
       </c>
       <c r="C134" t="n">
-        <v>26.99852075653172</v>
+        <v>33.61188362314161</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.05421414379225098</v>
+        <v>-0.002763959182900066</v>
       </c>
     </row>
     <row r="135">
@@ -2317,13 +2317,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>26.95091185950584</v>
+        <v>33.63172150006028</v>
       </c>
       <c r="C135" t="n">
-        <v>27.16152824496267</v>
+        <v>33.66409149444647</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.2106163854568308</v>
+        <v>-0.03236999438618682</v>
       </c>
     </row>
     <row r="136">
@@ -2331,13 +2331,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>26.9542618486479</v>
+        <v>33.63287940960164</v>
       </c>
       <c r="C136" t="n">
-        <v>27.03166323025621</v>
+        <v>33.67003954986522</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.07740138160830767</v>
+        <v>-0.03716014026358039</v>
       </c>
     </row>
     <row r="137">
@@ -2345,13 +2345,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>26.95658492791523</v>
+        <v>33.64124976261419</v>
       </c>
       <c r="C137" t="n">
-        <v>27.14743445766494</v>
+        <v>33.75427680537011</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.1908495297497019</v>
+        <v>-0.1130270427559168</v>
       </c>
     </row>
     <row r="138">
@@ -2359,13 +2359,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>26.98543811747835</v>
+        <v>33.64915519401264</v>
       </c>
       <c r="C138" t="n">
-        <v>27.11923408243625</v>
+        <v>33.6990331032064</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.1337959649579012</v>
+        <v>-0.04987790919376778</v>
       </c>
     </row>
     <row r="139">
@@ -2373,13 +2373,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>26.99378911058139</v>
+        <v>33.65309428185364</v>
       </c>
       <c r="C139" t="n">
-        <v>27.03878974959789</v>
+        <v>33.75148220663824</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.04500063901650364</v>
+        <v>-0.09838792478459624</v>
       </c>
     </row>
     <row r="140">
@@ -2387,13 +2387,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>27.00928951849348</v>
+        <v>33.65580897922106</v>
       </c>
       <c r="C140" t="n">
-        <v>27.12913704428459</v>
+        <v>33.67952388828078</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.119847525791112</v>
+        <v>-0.02371490905972706</v>
       </c>
     </row>
     <row r="141">
@@ -2401,13 +2401,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>27.0331167282944</v>
+        <v>33.66019524734512</v>
       </c>
       <c r="C141" t="n">
-        <v>27.11765247541164</v>
+        <v>33.72222771983987</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.08453574711723988</v>
+        <v>-0.06203247249474941</v>
       </c>
     </row>
     <row r="142">
@@ -2415,13 +2415,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>27.06679784865121</v>
+        <v>33.67267221834884</v>
       </c>
       <c r="C142" t="n">
-        <v>27.12683948942742</v>
+        <v>33.76385098717264</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.06004164077621255</v>
+        <v>-0.09117876882379505</v>
       </c>
     </row>
     <row r="143">
@@ -2429,13 +2429,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>27.06971856633964</v>
+        <v>33.69104753940729</v>
       </c>
       <c r="C143" t="n">
-        <v>27.0897872078632</v>
+        <v>33.738042624808</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.02006864152355803</v>
+        <v>-0.04699508540070951</v>
       </c>
     </row>
     <row r="144">
@@ -2443,13 +2443,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>27.11714523975367</v>
+        <v>33.73185264122534</v>
       </c>
       <c r="C144" t="n">
-        <v>27.15609190033147</v>
+        <v>33.74357181367863</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.03894666057779617</v>
+        <v>-0.01171917245329013</v>
       </c>
     </row>
     <row r="145">
@@ -2457,13 +2457,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>27.12654570740993</v>
+        <v>33.73200775847001</v>
       </c>
       <c r="C145" t="n">
-        <v>27.13462439604136</v>
+        <v>33.74902436797107</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.008078688631435682</v>
+        <v>-0.01701660950106287</v>
       </c>
     </row>
     <row r="146">
@@ -2471,13 +2471,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>28.96382066597856</v>
+        <v>33.73659461460721</v>
       </c>
       <c r="C146" t="n">
-        <v>29.009177225266</v>
+        <v>33.73836721650571</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.0453565592874412</v>
+        <v>-0.001772601898508697</v>
       </c>
     </row>
     <row r="147">
@@ -2485,13 +2485,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>28.98427766193231</v>
+        <v>34.18068701924638</v>
       </c>
       <c r="C147" t="n">
-        <v>29.00793768047154</v>
+        <v>34.20225480985389</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.02366001853923194</v>
+        <v>-0.0215677906075058</v>
       </c>
     </row>
     <row r="148">
@@ -2499,13 +2499,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>28.98707920237218</v>
+        <v>34.18299643628106</v>
       </c>
       <c r="C148" t="n">
-        <v>29.14634317190582</v>
+        <v>34.29713774407976</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.1592639695336402</v>
+        <v>-0.1141413077986968</v>
       </c>
     </row>
     <row r="149">
@@ -2513,13 +2513,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>29.03329836285041</v>
+        <v>34.20108100935737</v>
       </c>
       <c r="C149" t="n">
-        <v>29.08920021400811</v>
+        <v>34.2665335869172</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.05590185115769941</v>
+        <v>-0.06545257755982448</v>
       </c>
     </row>
     <row r="150">
@@ -2527,13 +2527,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>29.07394652453183</v>
+        <v>34.20177024919262</v>
       </c>
       <c r="C150" t="n">
-        <v>29.14540921371648</v>
+        <v>34.30663870105409</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.07146268918464926</v>
+        <v>-0.1048684518614706</v>
       </c>
     </row>
     <row r="151">
@@ -2541,13 +2541,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>29.07584383190763</v>
+        <v>34.20535158798941</v>
       </c>
       <c r="C151" t="n">
-        <v>29.16307234637954</v>
+        <v>34.2513924337363</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.0872285144719136</v>
+        <v>-0.04604084574688727</v>
       </c>
     </row>
     <row r="152">
@@ -2555,13 +2555,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>29.09750225596744</v>
+        <v>34.20643363990409</v>
       </c>
       <c r="C152" t="n">
-        <v>29.16946355982274</v>
+        <v>34.28050256689299</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.07196130385530353</v>
+        <v>-0.07406892698890033</v>
       </c>
     </row>
     <row r="153">
@@ -2569,13 +2569,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>29.44745214005126</v>
+        <v>34.24259329160085</v>
       </c>
       <c r="C153" t="n">
-        <v>29.15058700404455</v>
+        <v>34.30997530268029</v>
       </c>
       <c r="D153" t="n">
-        <v>0.2968651360067085</v>
+        <v>-0.06738201107944519</v>
       </c>
     </row>
     <row r="154">
@@ -2583,13 +2583,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>29.67521941011345</v>
+        <v>34.24878681598084</v>
       </c>
       <c r="C154" t="n">
-        <v>29.81402011477941</v>
+        <v>34.2811872512688</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.1388007046659574</v>
+        <v>-0.03240043528795411</v>
       </c>
     </row>
     <row r="155">
@@ -2597,13 +2597,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>29.69760258810119</v>
+        <v>34.26349331619188</v>
       </c>
       <c r="C155" t="n">
-        <v>29.72884415009345</v>
+        <v>34.26757212208934</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.03124156199226036</v>
+        <v>-0.004078805897457016</v>
       </c>
     </row>
     <row r="156">
@@ -2611,13 +2611,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>29.73420091013144</v>
+        <v>34.26628250948913</v>
       </c>
       <c r="C156" t="n">
-        <v>29.85259771749127</v>
+        <v>34.27136563842294</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.1183968073598294</v>
+        <v>-0.00508312893381202</v>
       </c>
     </row>
     <row r="157">
@@ -2625,13 +2625,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>29.73950600324658</v>
+        <v>34.26943263270257</v>
       </c>
       <c r="C157" t="n">
-        <v>29.75343729243591</v>
+        <v>34.29272426108145</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.01393128918933328</v>
+        <v>-0.02329162837888532</v>
       </c>
     </row>
     <row r="158">
@@ -2639,13 +2639,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>29.760435667995</v>
+        <v>34.27709365771246</v>
       </c>
       <c r="C158" t="n">
-        <v>29.76514666134067</v>
+        <v>34.31264933382084</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.004710993345661052</v>
+        <v>-0.03555567610837329</v>
       </c>
     </row>
     <row r="159">
@@ -2653,13 +2653,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>29.78553179284827</v>
+        <v>34.28800085313392</v>
       </c>
       <c r="C159" t="n">
-        <v>29.82951574136706</v>
+        <v>34.30758891765032</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.04398394851878962</v>
+        <v>-0.01958806451640527</v>
       </c>
     </row>
     <row r="160">
@@ -2667,13 +2667,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>29.8117205036247</v>
+        <v>34.2916167838686</v>
       </c>
       <c r="C160" t="n">
-        <v>29.81647063431494</v>
+        <v>34.30730313089791</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.004750130690240439</v>
+        <v>-0.01568634702930893</v>
       </c>
     </row>
     <row r="161">
@@ -2681,13 +2681,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>29.81328003738165</v>
+        <v>34.30820604716362</v>
       </c>
       <c r="C161" t="n">
-        <v>29.87247611257006</v>
+        <v>34.32181125532227</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.05919607518841019</v>
+        <v>-0.01360520815865129</v>
       </c>
     </row>
     <row r="162">
@@ -2695,13 +2695,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>29.81585729437581</v>
+        <v>36.45429627679371</v>
       </c>
       <c r="C162" t="n">
-        <v>29.86449150250667</v>
+        <v>36.50786859118683</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.04863420813085995</v>
+        <v>-0.05357231439311505</v>
       </c>
     </row>
     <row r="163">
@@ -2709,13 +2709,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>29.81865584061705</v>
+        <v>36.46320396451527</v>
       </c>
       <c r="C163" t="n">
-        <v>29.86212146035468</v>
+        <v>36.48191597484002</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.0434656197376313</v>
+        <v>-0.01871201032475511</v>
       </c>
     </row>
     <row r="164">
@@ -2723,13 +2723,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>29.843888794153</v>
+        <v>36.47342261870386</v>
       </c>
       <c r="C164" t="n">
-        <v>29.84859611229556</v>
+        <v>36.47639277291838</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.004707318142564532</v>
+        <v>-0.002970154214523291</v>
       </c>
     </row>
     <row r="165">
@@ -2737,13 +2737,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>29.89842125498306</v>
+        <v>36.49133468267748</v>
       </c>
       <c r="C165" t="n">
-        <v>29.85135830692725</v>
+        <v>36.52633654272065</v>
       </c>
       <c r="D165" t="n">
-        <v>0.04706294805581379</v>
+        <v>-0.03500186004316674</v>
       </c>
     </row>
     <row r="166">
@@ -2751,13 +2751,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>29.94709185710245</v>
+        <v>36.51686248847962</v>
       </c>
       <c r="C166" t="n">
-        <v>29.82050464351071</v>
+        <v>36.56901403223165</v>
       </c>
       <c r="D166" t="n">
-        <v>0.1265872135917334</v>
+        <v>-0.05215154375202502</v>
       </c>
     </row>
     <row r="167">
@@ -2765,13 +2765,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>34.23372767447067</v>
+        <v>36.51892527995344</v>
       </c>
       <c r="C167" t="n">
-        <v>34.32670257843824</v>
+        <v>36.54245692216297</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.09297490396756558</v>
+        <v>-0.02353164220953374</v>
       </c>
     </row>
     <row r="168">
@@ -2779,13 +2779,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>34.23561378818739</v>
+        <v>36.5291724982814</v>
       </c>
       <c r="C168" t="n">
-        <v>34.34392060840305</v>
+        <v>36.59331212330262</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.1083068202156667</v>
+        <v>-0.06413962502121962</v>
       </c>
     </row>
     <row r="169">
@@ -2793,13 +2793,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>34.27255582814841</v>
+        <v>36.53323051239772</v>
       </c>
       <c r="C169" t="n">
-        <v>34.31551205830414</v>
+        <v>36.58641967708797</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.04295623015573824</v>
+        <v>-0.05318916469025226</v>
       </c>
     </row>
     <row r="170">
@@ -2807,13 +2807,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>34.2828342520821</v>
+        <v>36.53652778631992</v>
       </c>
       <c r="C170" t="n">
-        <v>34.35820320648104</v>
+        <v>36.55067241616744</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.07536895439894664</v>
+        <v>-0.01414462984752163</v>
       </c>
     </row>
     <row r="171">
@@ -2821,13 +2821,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>34.28745900592282</v>
+        <v>36.55208101868946</v>
       </c>
       <c r="C171" t="n">
-        <v>34.3072700361236</v>
+        <v>36.57571112654217</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.01981103020078478</v>
+        <v>-0.02363010785271769</v>
       </c>
     </row>
     <row r="172">
@@ -2835,13 +2835,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>34.30940021652302</v>
+        <v>36.56303710711411</v>
       </c>
       <c r="C172" t="n">
-        <v>34.35722649871963</v>
+        <v>36.59077517778934</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.04782628219660978</v>
+        <v>-0.02773807067523393</v>
       </c>
     </row>
     <row r="173">
@@ -2849,13 +2849,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>34.32237230416392</v>
+        <v>36.58131413088299</v>
       </c>
       <c r="C173" t="n">
-        <v>34.36758793818228</v>
+        <v>36.58488436637496</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.04521563401835493</v>
+        <v>-0.003570235491963558</v>
       </c>
     </row>
     <row r="174">
@@ -2863,13 +2863,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>34.36112848172716</v>
+        <v>37.78467369481206</v>
       </c>
       <c r="C174" t="n">
-        <v>34.41571278656271</v>
+        <v>37.94873234685164</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.05458430483554366</v>
+        <v>-0.1640586520395715</v>
       </c>
     </row>
     <row r="175">
@@ -2877,13 +2877,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>36.57665412256002</v>
+        <v>37.81111380237221</v>
       </c>
       <c r="C175" t="n">
-        <v>36.60484184666158</v>
+        <v>37.85961660959354</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.02818772410156356</v>
+        <v>-0.04850280722133249</v>
       </c>
     </row>
     <row r="176">
@@ -2891,13 +2891,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>36.60509870608502</v>
+        <v>37.81434936119809</v>
       </c>
       <c r="C176" t="n">
-        <v>36.73837359239081</v>
+        <v>37.81663841693943</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.1332748863057986</v>
+        <v>-0.002289055741336199</v>
       </c>
     </row>
     <row r="177">
@@ -2905,13 +2905,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>36.64409794083445</v>
+        <v>37.85927759421283</v>
       </c>
       <c r="C177" t="n">
-        <v>36.73206365467338</v>
+        <v>37.90556214583044</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.08796571383893337</v>
+        <v>-0.04628455161761735</v>
       </c>
     </row>
     <row r="178">
@@ -2919,13 +2919,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>36.6522129821025</v>
+        <v>37.86596227653747</v>
       </c>
       <c r="C178" t="n">
-        <v>36.66569044819375</v>
+        <v>37.95208683435328</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.01347746609124556</v>
+        <v>-0.08612455781580763</v>
       </c>
     </row>
     <row r="179">
@@ -2933,13 +2933,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>36.67672064027716</v>
+        <v>37.87631219487108</v>
       </c>
       <c r="C179" t="n">
-        <v>36.7149865752117</v>
+        <v>37.9031620654808</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.03826593493453601</v>
+        <v>-0.02684987060972333</v>
       </c>
     </row>
     <row r="180">
@@ -2947,13 +2947,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>36.69157222142354</v>
+        <v>37.87858969080354</v>
       </c>
       <c r="C180" t="n">
-        <v>36.72809377754932</v>
+        <v>37.933103019216</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.03652155612577701</v>
+        <v>-0.0545133284124546</v>
       </c>
     </row>
     <row r="181">
@@ -2961,13 +2961,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>36.73528124429421</v>
+        <v>37.89174466619554</v>
       </c>
       <c r="C181" t="n">
-        <v>36.7426881898509</v>
+        <v>37.95735335215273</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.007406945556688527</v>
+        <v>-0.06560868595719427</v>
       </c>
     </row>
     <row r="182">
@@ -2975,13 +2975,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>38.04339598939806</v>
+        <v>37.91093969371438</v>
       </c>
       <c r="C182" t="n">
-        <v>38.15715948640845</v>
+        <v>37.94370257725006</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.113763497010396</v>
+        <v>-0.0327628835356748</v>
       </c>
     </row>
     <row r="183">
@@ -2989,13 +2989,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>38.04347043996961</v>
+        <v>38.23047100561262</v>
       </c>
       <c r="C183" t="n">
-        <v>38.05725938240654</v>
+        <v>38.27669541264284</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.01378894243692486</v>
+        <v>-0.04622440703021624</v>
       </c>
     </row>
     <row r="184">
@@ -3003,13 +3003,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>38.04931778063172</v>
+        <v>38.27887886612598</v>
       </c>
       <c r="C184" t="n">
-        <v>38.22391333935743</v>
+        <v>38.35195174305914</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.1745955587257129</v>
+        <v>-0.07307287693316056</v>
       </c>
     </row>
     <row r="185">
@@ -3017,13 +3017,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>38.05990730430082</v>
+        <v>38.28531659095393</v>
       </c>
       <c r="C185" t="n">
-        <v>38.25711323793844</v>
+        <v>38.3657170530153</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.1972059336376191</v>
+        <v>-0.08040046206137674</v>
       </c>
     </row>
     <row r="186">
@@ -3031,13 +3031,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>38.06534955809673</v>
+        <v>38.29239862631251</v>
       </c>
       <c r="C186" t="n">
-        <v>38.23315854165282</v>
+        <v>38.3834393534914</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.1678089835560854</v>
+        <v>-0.09104072717889267</v>
       </c>
     </row>
     <row r="187">
@@ -3045,13 +3045,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>38.07369294558776</v>
+        <v>38.29910322200199</v>
       </c>
       <c r="C187" t="n">
-        <v>38.14451594760133</v>
+        <v>38.31069248693254</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.07082300201357583</v>
+        <v>-0.01158926493054935</v>
       </c>
     </row>
     <row r="188">
@@ -3059,13 +3059,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>38.07920579491383</v>
+        <v>38.30142040719898</v>
       </c>
       <c r="C188" t="n">
-        <v>38.19281869982336</v>
+        <v>38.33201649115687</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.1136129049095373</v>
+        <v>-0.03059608395789581</v>
       </c>
     </row>
     <row r="189">
@@ -3073,13 +3073,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>38.16410334570379</v>
+        <v>38.30940340184368</v>
       </c>
       <c r="C189" t="n">
-        <v>38.24450663123658</v>
+        <v>38.31413667278085</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.08040328553278187</v>
+        <v>-0.004733270937173018</v>
       </c>
     </row>
     <row r="190">
@@ -3087,13 +3087,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>38.18168196150606</v>
+        <v>38.32354369951952</v>
       </c>
       <c r="C190" t="n">
-        <v>38.25839634942342</v>
+        <v>38.32396213952887</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.07671438791736307</v>
+        <v>-0.0004184400093549812</v>
       </c>
     </row>
     <row r="191">
@@ -3101,13 +3101,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>38.18833830358465</v>
+        <v>38.32369237709381</v>
       </c>
       <c r="C191" t="n">
-        <v>38.25891130559054</v>
+        <v>38.33765880528089</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.07057300200588656</v>
+        <v>-0.01396642818707505</v>
       </c>
     </row>
     <row r="192">
@@ -3115,13 +3115,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>38.33936878601714</v>
+        <v>38.34085311458289</v>
       </c>
       <c r="C192" t="n">
-        <v>38.40058775007329</v>
+        <v>38.4010518378444</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.06121896405615246</v>
+        <v>-0.06019872326150733</v>
       </c>
     </row>
     <row r="193">
@@ -3129,13 +3129,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>38.34156643095721</v>
+        <v>38.35016081964368</v>
       </c>
       <c r="C193" t="n">
-        <v>38.46026168747382</v>
+        <v>38.36134328641651</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.1186952565166166</v>
+        <v>-0.01118246677282997</v>
       </c>
     </row>
     <row r="194">
@@ -3143,13 +3143,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>38.34686163504247</v>
+        <v>38.39958818280542</v>
       </c>
       <c r="C194" t="n">
-        <v>38.42202258488967</v>
+        <v>38.40314559830815</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.07516094984720212</v>
+        <v>-0.003557415502733363</v>
       </c>
     </row>
     <row r="195">
@@ -3157,13 +3157,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>38.34755058253774</v>
+        <v>38.51704554529189</v>
       </c>
       <c r="C195" t="n">
-        <v>38.36066240288135</v>
+        <v>38.37450236248065</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.01311182034360314</v>
+        <v>0.1425431828112309</v>
       </c>
     </row>
     <row r="196">
@@ -3171,13 +3171,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>38.39219536267431</v>
+        <v>39.93254802724294</v>
       </c>
       <c r="C196" t="n">
-        <v>38.41887085631005</v>
+        <v>39.94980750778316</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.02667549363574295</v>
+        <v>-0.01725948054021131</v>
       </c>
     </row>
     <row r="197">
@@ -3185,13 +3185,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>38.41382921732196</v>
+        <v>39.93361500871972</v>
       </c>
       <c r="C197" t="n">
-        <v>38.50339988437911</v>
+        <v>39.99352545765822</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.08957066705714567</v>
+        <v>-0.05991044893849562</v>
       </c>
     </row>
     <row r="198">
@@ -3199,13 +3199,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>38.47326857278363</v>
+        <v>39.93936959127868</v>
       </c>
       <c r="C198" t="n">
-        <v>38.51891619540384</v>
+        <v>39.99607127842486</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.04564762262020849</v>
+        <v>-0.05670168714617319</v>
       </c>
     </row>
     <row r="199">
@@ -3213,13 +3213,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>38.47965385026604</v>
+        <v>39.94698573150691</v>
       </c>
       <c r="C199" t="n">
-        <v>38.52904265639673</v>
+        <v>40.07074038504068</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.04938880613068619</v>
+        <v>-0.1237546535337728</v>
       </c>
     </row>
     <row r="200">
@@ -3227,13 +3227,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>38.50442867419059</v>
+        <v>39.95708513835387</v>
       </c>
       <c r="C200" t="n">
-        <v>38.53963712616854</v>
+        <v>40.05740883052194</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.03520845197795097</v>
+        <v>-0.1003236921680752</v>
       </c>
     </row>
     <row r="201">
@@ -3241,13 +3241,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>38.52622845042468</v>
+        <v>39.96451293685839</v>
       </c>
       <c r="C201" t="n">
-        <v>38.55461347768471</v>
+        <v>39.9673600689549</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.02838502726002901</v>
+        <v>-0.002847132096505334</v>
       </c>
     </row>
     <row r="202">
@@ -3255,13 +3255,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>38.52678403645305</v>
+        <v>39.96549235664344</v>
       </c>
       <c r="C202" t="n">
-        <v>38.53654987157253</v>
+        <v>40.07247784647458</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.00976583511947382</v>
+        <v>-0.1069854898311391</v>
       </c>
     </row>
     <row r="203">
@@ -3269,13 +3269,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>38.52823908388599</v>
+        <v>39.98979966164764</v>
       </c>
       <c r="C203" t="n">
-        <v>38.5388066530535</v>
+        <v>40.0611467917369</v>
       </c>
       <c r="D203" t="n">
-        <v>-0.01056756916751311</v>
+        <v>-0.07134713008925786</v>
       </c>
     </row>
     <row r="204">
@@ -3283,13 +3283,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>38.70745028215142</v>
+        <v>40.00576058498556</v>
       </c>
       <c r="C204" t="n">
-        <v>38.25298407421259</v>
+        <v>40.04134265854295</v>
       </c>
       <c r="D204" t="n">
-        <v>0.4544662079388289</v>
+        <v>-0.03558207355739285</v>
       </c>
     </row>
     <row r="205">
@@ -3297,13 +3297,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>41.96354731869212</v>
+        <v>40.13946161702658</v>
       </c>
       <c r="C205" t="n">
-        <v>42.11375427235945</v>
+        <v>40.06284359563014</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.1502069536673289</v>
+        <v>0.0766180213964347</v>
       </c>
     </row>
     <row r="206">
@@ -3311,13 +3311,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>41.966403707414</v>
+        <v>43.36461499858341</v>
       </c>
       <c r="C206" t="n">
-        <v>42.00933038951297</v>
+        <v>43.49399414964675</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.04292668209896533</v>
+        <v>-0.1293791510633397</v>
       </c>
     </row>
     <row r="207">
@@ -3325,13 +3325,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>41.98430623112476</v>
+        <v>43.37265478622509</v>
       </c>
       <c r="C207" t="n">
-        <v>41.99901867703742</v>
+        <v>43.47249904081445</v>
       </c>
       <c r="D207" t="n">
-        <v>-0.01471244591266441</v>
+        <v>-0.09984425458935675</v>
       </c>
     </row>
     <row r="208">
@@ -3339,13 +3339,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>41.99888759592683</v>
+        <v>43.37863999237409</v>
       </c>
       <c r="C208" t="n">
-        <v>42.10868817618658</v>
+        <v>43.44260155463895</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.1098005802597513</v>
+        <v>-0.06396156226485772</v>
       </c>
     </row>
     <row r="209">
@@ -3353,13 +3353,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>42.00224262239897</v>
+        <v>43.38729506702084</v>
       </c>
       <c r="C209" t="n">
-        <v>42.01639175982086</v>
+        <v>43.40199426690342</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.01414913742188872</v>
+        <v>-0.01469919988257828</v>
       </c>
     </row>
     <row r="210">
@@ -3367,13 +3367,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>42.01667054347643</v>
+        <v>43.38993066909669</v>
       </c>
       <c r="C210" t="n">
-        <v>42.156171038837</v>
+        <v>43.48172926422277</v>
       </c>
       <c r="D210" t="n">
-        <v>-0.1395004953605721</v>
+        <v>-0.09179859512607891</v>
       </c>
     </row>
     <row r="211">
@@ -3381,13 +3381,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>42.06866076430128</v>
+        <v>43.40128669621482</v>
       </c>
       <c r="C211" t="n">
-        <v>42.13957265620173</v>
+        <v>43.48223038899102</v>
       </c>
       <c r="D211" t="n">
-        <v>-0.07091189190044389</v>
+        <v>-0.08094369277620217</v>
       </c>
     </row>
     <row r="212">
@@ -3395,13 +3395,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>42.10394787468601</v>
+        <v>43.40943457890038</v>
       </c>
       <c r="C212" t="n">
-        <v>42.0630151977256</v>
+        <v>43.4526903817065</v>
       </c>
       <c r="D212" t="n">
-        <v>0.04093267696041636</v>
+        <v>-0.04325580280611518</v>
       </c>
     </row>
     <row r="213">
@@ -3409,13 +3409,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>42.15497084654891</v>
+        <v>43.42202345687286</v>
       </c>
       <c r="C213" t="n">
-        <v>42.17968360148833</v>
+        <v>43.4430462016897</v>
       </c>
       <c r="D213" t="n">
-        <v>-0.02471275493941505</v>
+        <v>-0.02102274481684674</v>
       </c>
     </row>
     <row r="214">
@@ -3423,13 +3423,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>42.15781687845045</v>
+        <v>43.43109141252886</v>
       </c>
       <c r="C214" t="n">
-        <v>42.17954406896319</v>
+        <v>43.48805788096661</v>
       </c>
       <c r="D214" t="n">
-        <v>-0.02172719051273475</v>
+        <v>-0.05696646843775</v>
       </c>
     </row>
     <row r="215">
@@ -3437,13 +3437,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>46.51407513042642</v>
+        <v>43.43812288045989</v>
       </c>
       <c r="C215" t="n">
-        <v>46.52635738638042</v>
+        <v>43.46579138377142</v>
       </c>
       <c r="D215" t="n">
-        <v>-0.01228225595399834</v>
+        <v>-0.02766850331153137</v>
       </c>
     </row>
     <row r="216">
@@ -3451,13 +3451,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>46.52390568350719</v>
+        <v>43.44042102380288</v>
       </c>
       <c r="C216" t="n">
-        <v>46.53901459010569</v>
+        <v>43.47011641560995</v>
       </c>
       <c r="D216" t="n">
-        <v>-0.01510890659849906</v>
+        <v>-0.02969539180706704</v>
       </c>
     </row>
     <row r="217">
@@ -3465,13 +3465,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>46.53501602445301</v>
+        <v>43.45331736390975</v>
       </c>
       <c r="C217" t="n">
-        <v>46.57847485329593</v>
+        <v>43.45534215409967</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.04345882884292251</v>
+        <v>-0.002024790189913972</v>
       </c>
     </row>
     <row r="218">
@@ -3479,13 +3479,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>46.54708104838124</v>
+        <v>43.45510804618106</v>
       </c>
       <c r="C218" t="n">
-        <v>46.6035424136484</v>
+        <v>43.48777984586309</v>
       </c>
       <c r="D218" t="n">
-        <v>-0.05646136526716106</v>
+        <v>-0.03267179968203493</v>
       </c>
     </row>
     <row r="219">
@@ -3493,13 +3493,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>46.56571188774441</v>
+        <v>43.4930697559651</v>
       </c>
       <c r="C219" t="n">
-        <v>46.5665033723869</v>
+        <v>43.49779014682148</v>
       </c>
       <c r="D219" t="n">
-        <v>-0.0007914846424839084</v>
+        <v>-0.004720390856384427</v>
       </c>
     </row>
     <row r="220">
@@ -3507,13 +3507,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>46.5702876133923</v>
+        <v>43.60023828384404</v>
       </c>
       <c r="C220" t="n">
-        <v>46.71190767220531</v>
+        <v>43.35930173148751</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.141620058813011</v>
+        <v>0.2409365523565299</v>
       </c>
     </row>
     <row r="221">
@@ -3521,13 +3521,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>46.59360185938579</v>
+        <v>44.68048406111042</v>
       </c>
       <c r="C221" t="n">
-        <v>46.65255235230143</v>
+        <v>44.78582945386072</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.05895049291563481</v>
+        <v>-0.1053453927503014</v>
       </c>
     </row>
     <row r="222">
@@ -3535,13 +3535,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>46.86476576373296</v>
+        <v>44.686389369944</v>
       </c>
       <c r="C222" t="n">
-        <v>47.04057572397102</v>
+        <v>44.81901462227704</v>
       </c>
       <c r="D222" t="n">
-        <v>-0.1758099602380554</v>
+        <v>-0.1326252523330353</v>
       </c>
     </row>
     <row r="223">
@@ -3549,13 +3549,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>46.92233469385603</v>
+        <v>44.70090803878647</v>
       </c>
       <c r="C223" t="n">
-        <v>47.02951135233628</v>
+        <v>44.75208304794025</v>
       </c>
       <c r="D223" t="n">
-        <v>-0.1071766584802489</v>
+        <v>-0.05117500915378059</v>
       </c>
     </row>
     <row r="224">
@@ -3563,13 +3563,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>46.93182996589015</v>
+        <v>44.71869645356757</v>
       </c>
       <c r="C224" t="n">
-        <v>47.05825190220177</v>
+        <v>44.72699933858041</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.1264219363116297</v>
+        <v>-0.008302885012838601</v>
       </c>
     </row>
     <row r="225">
@@ -3577,13 +3577,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>46.9809449826804</v>
+        <v>44.73978350394564</v>
       </c>
       <c r="C225" t="n">
-        <v>47.04586309784234</v>
+        <v>44.83286354974268</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.06491811516194446</v>
+        <v>-0.09308004579704487</v>
       </c>
     </row>
     <row r="226">
@@ -3591,13 +3591,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>46.98711955869849</v>
+        <v>44.75328751089559</v>
       </c>
       <c r="C226" t="n">
-        <v>47.00279026735983</v>
+        <v>44.78853454718703</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.01567070866133946</v>
+        <v>-0.03524703629144454</v>
       </c>
     </row>
     <row r="227">
@@ -3605,13 +3605,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>46.99209701467203</v>
+        <v>44.81617480460235</v>
       </c>
       <c r="C227" t="n">
-        <v>47.0638883489237</v>
+        <v>44.83657980640944</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.07179133425167095</v>
+        <v>-0.02040500180708449</v>
       </c>
     </row>
     <row r="228">
@@ -3619,13 +3619,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>47.01968029953783</v>
+        <v>51.39883180238922</v>
       </c>
       <c r="C228" t="n">
-        <v>47.02785099749544</v>
+        <v>51.50459096894127</v>
       </c>
       <c r="D228" t="n">
-        <v>-0.008170697957609718</v>
+        <v>-0.1057591665520548</v>
       </c>
     </row>
     <row r="229">
@@ -3633,13 +3633,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>48.31968983346922</v>
+        <v>51.40063609145808</v>
       </c>
       <c r="C229" t="n">
-        <v>48.47908981612438</v>
+        <v>51.45716604149009</v>
       </c>
       <c r="D229" t="n">
-        <v>-0.1593999826551595</v>
+        <v>-0.05652995003201511</v>
       </c>
     </row>
     <row r="230">
@@ -3647,13 +3647,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>48.33021103753853</v>
+        <v>51.44472347061338</v>
       </c>
       <c r="C230" t="n">
-        <v>48.40332271148847</v>
+        <v>51.44810584994931</v>
       </c>
       <c r="D230" t="n">
-        <v>-0.07311167394993845</v>
+        <v>-0.003382379335938879</v>
       </c>
     </row>
     <row r="231">
@@ -3661,13 +3661,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>48.33676787852809</v>
+        <v>51.47770580291335</v>
       </c>
       <c r="C231" t="n">
-        <v>48.39395350633552</v>
+        <v>51.54258899876208</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.05718562780742786</v>
+        <v>-0.06488319584873636</v>
       </c>
     </row>
     <row r="232">
@@ -3675,13 +3675,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>48.33748760588398</v>
+        <v>51.47879932178362</v>
       </c>
       <c r="C232" t="n">
-        <v>48.4026033664656</v>
+        <v>51.53456270604217</v>
       </c>
       <c r="D232" t="n">
-        <v>-0.0651157605816195</v>
+        <v>-0.05576338425854743</v>
       </c>
     </row>
     <row r="233">
@@ -3689,13 +3689,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>48.33827154375728</v>
+        <v>51.48674051818633</v>
       </c>
       <c r="C233" t="n">
-        <v>48.37899125303309</v>
+        <v>51.55978925514015</v>
       </c>
       <c r="D233" t="n">
-        <v>-0.04071970927581248</v>
+        <v>-0.07304873695381531</v>
       </c>
     </row>
     <row r="234">
@@ -3703,13 +3703,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>48.34165124367869</v>
+        <v>51.53774621719703</v>
       </c>
       <c r="C234" t="n">
-        <v>48.40579765449902</v>
+        <v>51.55884521263209</v>
       </c>
       <c r="D234" t="n">
-        <v>-0.06414641082032801</v>
+        <v>-0.02109899543506089</v>
       </c>
     </row>
     <row r="235">
@@ -3717,13 +3717,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>48.35206637610541</v>
+        <v>56.33062355071742</v>
       </c>
       <c r="C235" t="n">
-        <v>48.36007249406936</v>
+        <v>56.36876253087806</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.008006117963951453</v>
+        <v>-0.03813898016063888</v>
       </c>
     </row>
     <row r="236">
@@ -3731,13 +3731,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>48.41892753788571</v>
+        <v>56.33366420435314</v>
       </c>
       <c r="C236" t="n">
-        <v>48.47724079837682</v>
+        <v>56.42225414751668</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.05831326049111141</v>
+        <v>-0.08858994316354085</v>
       </c>
     </row>
     <row r="237">
@@ -3745,13 +3745,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>48.42883538513254</v>
+        <v>56.35429629287118</v>
       </c>
       <c r="C237" t="n">
-        <v>48.45154621672787</v>
+        <v>56.44818206895029</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.02271083159532594</v>
+        <v>-0.0938857760791123</v>
       </c>
     </row>
     <row r="238">
@@ -3759,13 +3759,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>48.43923549282071</v>
+        <v>56.35912305283566</v>
       </c>
       <c r="C238" t="n">
-        <v>48.49420540881822</v>
+        <v>56.37551853694557</v>
       </c>
       <c r="D238" t="n">
-        <v>-0.05496991599751766</v>
+        <v>-0.01639548410991409</v>
       </c>
     </row>
     <row r="239">
@@ -3773,13 +3773,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>48.43954487289716</v>
+        <v>56.36845541584907</v>
       </c>
       <c r="C239" t="n">
-        <v>48.48498504610026</v>
+        <v>56.46094105912691</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.04544017320309734</v>
+        <v>-0.09248564327783981</v>
       </c>
     </row>
     <row r="240">
@@ -3787,13 +3787,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>48.482198518187</v>
+        <v>56.37443698821836</v>
       </c>
       <c r="C240" t="n">
-        <v>48.48727561032773</v>
+        <v>56.46395702472615</v>
       </c>
       <c r="D240" t="n">
-        <v>-0.005077092140723494</v>
+        <v>-0.08952003650779261</v>
       </c>
     </row>
     <row r="241">
@@ -3801,13 +3801,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>48.48238836907353</v>
+        <v>56.37645327532704</v>
       </c>
       <c r="C241" t="n">
-        <v>48.50459404620618</v>
+        <v>56.46664706256587</v>
       </c>
       <c r="D241" t="n">
-        <v>-0.02220567713265353</v>
+        <v>-0.09019378723882454</v>
       </c>
     </row>
     <row r="242">
@@ -3815,13 +3815,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>48.55218031888943</v>
+        <v>56.38416391791498</v>
       </c>
       <c r="C242" t="n">
-        <v>48.49281254854027</v>
+        <v>56.4671823402034</v>
       </c>
       <c r="D242" t="n">
-        <v>0.05936777034916219</v>
+        <v>-0.08301842228841849</v>
       </c>
     </row>
     <row r="243">
@@ -3829,13 +3829,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>49.56384268320539</v>
+        <v>56.39240930420771</v>
       </c>
       <c r="C243" t="n">
-        <v>49.72211440698786</v>
+        <v>56.43898936368425</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.1582717237824767</v>
+        <v>-0.04658005947653976</v>
       </c>
     </row>
     <row r="244">
@@ -3843,13 +3843,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>49.57504765388078</v>
+        <v>56.39552646467817</v>
       </c>
       <c r="C244" t="n">
-        <v>49.74006080936994</v>
+        <v>56.44046100846166</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.165013155489163</v>
+        <v>-0.04493454378349071</v>
       </c>
     </row>
     <row r="245">
@@ -3857,13 +3857,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>49.58061301173068</v>
+        <v>56.41631336137394</v>
       </c>
       <c r="C245" t="n">
-        <v>49.71458648062325</v>
+        <v>56.43860251730661</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.1339734688925702</v>
+        <v>-0.02228915593266834</v>
       </c>
     </row>
     <row r="246">
@@ -3871,13 +3871,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>49.5872123898744</v>
+        <v>56.42949283226378</v>
       </c>
       <c r="C246" t="n">
-        <v>49.75242697580826</v>
+        <v>56.43716566692474</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.1652145859338603</v>
+        <v>-0.007672834660965577</v>
       </c>
     </row>
     <row r="247">
@@ -3885,13 +3885,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>49.65568671439512</v>
+        <v>56.43274160171379</v>
       </c>
       <c r="C247" t="n">
-        <v>49.70978753167294</v>
+        <v>56.4434211683858</v>
       </c>
       <c r="D247" t="n">
-        <v>-0.05410081727782057</v>
+        <v>-0.0106795666720032</v>
       </c>
     </row>
     <row r="248">
@@ -3899,13 +3899,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>49.66244636650415</v>
+        <v>56.74932291020849</v>
       </c>
       <c r="C248" t="n">
-        <v>49.7575170385516</v>
+        <v>56.4152715726873</v>
       </c>
       <c r="D248" t="n">
-        <v>-0.09507067204745567</v>
+        <v>0.3340513375211955</v>
       </c>
     </row>
     <row r="249">
@@ -3913,13 +3913,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>49.6852711561152</v>
+        <v>56.9612306269721</v>
       </c>
       <c r="C249" t="n">
-        <v>49.72096158701811</v>
+        <v>56.37429085551317</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.03569043090291046</v>
+        <v>0.5869397714589368</v>
       </c>
     </row>
     <row r="250">
@@ -3927,13 +3927,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>49.69587987087021</v>
+        <v>58.37497941189817</v>
       </c>
       <c r="C250" t="n">
-        <v>49.7002061896604</v>
+        <v>58.52158646907652</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.004326318790184303</v>
+        <v>-0.1466070571783433</v>
       </c>
     </row>
     <row r="251">
@@ -3941,13 +3941,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>51.12577075983156</v>
+        <v>58.40852480491063</v>
       </c>
       <c r="C251" t="n">
-        <v>51.20086981677107</v>
+        <v>58.41682945195708</v>
       </c>
       <c r="D251" t="n">
-        <v>-0.07509905693950714</v>
+        <v>-0.008304647046458058</v>
       </c>
     </row>
     <row r="252">
@@ -3955,13 +3955,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>51.14655365073959</v>
+        <v>58.42283685778138</v>
       </c>
       <c r="C252" t="n">
-        <v>51.24724571164036</v>
+        <v>58.47675797249056</v>
       </c>
       <c r="D252" t="n">
-        <v>-0.1006920609007693</v>
+        <v>-0.05392111470918337</v>
       </c>
     </row>
     <row r="253">
@@ -3969,13 +3969,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>51.17427464428329</v>
+        <v>58.43197744858656</v>
       </c>
       <c r="C253" t="n">
-        <v>51.3260289765522</v>
+        <v>58.4531319563219</v>
       </c>
       <c r="D253" t="n">
-        <v>-0.151754332268915</v>
+        <v>-0.02115450773533922</v>
       </c>
     </row>
     <row r="254">
@@ -3983,13 +3983,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>51.23150166912823</v>
+        <v>58.44864297874432</v>
       </c>
       <c r="C254" t="n">
-        <v>51.29590801543305</v>
+        <v>58.49167970870455</v>
       </c>
       <c r="D254" t="n">
-        <v>-0.06440634630482123</v>
+        <v>-0.04303672996023522</v>
       </c>
     </row>
     <row r="255">
@@ -3997,13 +3997,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>51.25503487329147</v>
+        <v>60.45617353624569</v>
       </c>
       <c r="C255" t="n">
-        <v>51.26677678597473</v>
+        <v>60.53345690132365</v>
       </c>
       <c r="D255" t="n">
-        <v>-0.01174191268326297</v>
+        <v>-0.0772833650779603</v>
       </c>
     </row>
     <row r="256">
@@ -4011,13 +4011,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>51.26409744522164</v>
+        <v>60.48785903217887</v>
       </c>
       <c r="C256" t="n">
-        <v>51.34308097469336</v>
+        <v>60.56099140120143</v>
       </c>
       <c r="D256" t="n">
-        <v>-0.07898352947172071</v>
+        <v>-0.07313236902255937</v>
       </c>
     </row>
     <row r="257">
@@ -4025,13 +4025,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>51.26991721902085</v>
+        <v>60.50992892918809</v>
       </c>
       <c r="C257" t="n">
-        <v>51.32215771365058</v>
+        <v>60.5774472320583</v>
       </c>
       <c r="D257" t="n">
-        <v>-0.05224049462973568</v>
+        <v>-0.06751830287021221</v>
       </c>
     </row>
     <row r="258">
@@ -4039,13 +4039,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>51.27113903804271</v>
+        <v>60.52136816243882</v>
       </c>
       <c r="C258" t="n">
-        <v>51.3049107859086</v>
+        <v>60.55440164670664</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.03377174786589165</v>
+        <v>-0.03303348426781838</v>
       </c>
     </row>
     <row r="259">
@@ -4053,13 +4053,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>51.28270375058274</v>
+        <v>60.56516607120304</v>
       </c>
       <c r="C259" t="n">
-        <v>51.30440041050664</v>
+        <v>60.61159250567077</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.02169665992389724</v>
+        <v>-0.0464264344677332</v>
       </c>
     </row>
     <row r="260">
@@ -4067,13 +4067,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>53.61806005373057</v>
+        <v>60.5717792523639</v>
       </c>
       <c r="C260" t="n">
-        <v>53.80393039252198</v>
+        <v>60.57675198267898</v>
       </c>
       <c r="D260" t="n">
-        <v>-0.1858703387914176</v>
+        <v>-0.004972730315081719</v>
       </c>
     </row>
     <row r="261">
@@ -4081,13 +4081,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>53.62192041742843</v>
+        <v>60.58191662546167</v>
       </c>
       <c r="C261" t="n">
-        <v>53.64286271741517</v>
+        <v>60.59094431743165</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.0209422999867428</v>
+        <v>-0.009027691969976104</v>
       </c>
     </row>
     <row r="262">
@@ -4095,13 +4095,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>53.63103523065337</v>
+        <v>60.58948288367181</v>
       </c>
       <c r="C262" t="n">
-        <v>53.74142929500876</v>
+        <v>60.61812446750379</v>
       </c>
       <c r="D262" t="n">
-        <v>-0.1103940643553969</v>
+        <v>-0.02864158383198401</v>
       </c>
     </row>
     <row r="263">
@@ -4109,13 +4109,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>53.63358612518302</v>
+        <v>60.61027839649441</v>
       </c>
       <c r="C263" t="n">
-        <v>53.71656221924749</v>
+        <v>60.61171300061016</v>
       </c>
       <c r="D263" t="n">
-        <v>-0.08297609406447037</v>
+        <v>-0.001434604115750915</v>
       </c>
     </row>
     <row r="264">
@@ -4123,13 +4123,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>53.6487748777518</v>
+        <v>61.56189574865462</v>
       </c>
       <c r="C264" t="n">
-        <v>53.77072615891603</v>
+        <v>61.65685502352139</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.121951281164236</v>
+        <v>-0.09495927486676692</v>
       </c>
     </row>
     <row r="265">
@@ -4137,13 +4137,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>53.64973371212667</v>
+        <v>61.56425521650574</v>
       </c>
       <c r="C265" t="n">
-        <v>53.68103286192972</v>
+        <v>61.69922749445033</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.03129914980305415</v>
+        <v>-0.1349722779445912</v>
       </c>
     </row>
     <row r="266">
@@ -4151,13 +4151,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>53.67633120825855</v>
+        <v>61.58508541779857</v>
       </c>
       <c r="C266" t="n">
-        <v>53.7135002253237</v>
+        <v>61.61806641131273</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.0371690170651533</v>
+        <v>-0.03298099351416539</v>
       </c>
     </row>
     <row r="267">
@@ -4165,13 +4165,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>53.67709025034997</v>
+        <v>61.59598117445874</v>
       </c>
       <c r="C267" t="n">
-        <v>53.74512091453202</v>
+        <v>61.65149968449801</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.06803066418205361</v>
+        <v>-0.05551851003927055</v>
       </c>
     </row>
     <row r="268">
@@ -4179,13 +4179,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>53.68232135694129</v>
+        <v>61.60932661949378</v>
       </c>
       <c r="C268" t="n">
-        <v>53.75601994706664</v>
+        <v>61.63233429741854</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.07369859012535329</v>
+        <v>-0.02300767792475966</v>
       </c>
     </row>
     <row r="269">
@@ -4193,13 +4193,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>53.76752300220814</v>
+        <v>61.64471768053343</v>
       </c>
       <c r="C269" t="n">
-        <v>53.79862514082404</v>
+        <v>61.64808853355778</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.03110213861590694</v>
+        <v>-0.003370853024357245</v>
       </c>
     </row>
     <row r="270">
@@ -4207,13 +4207,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>53.76772084737989</v>
+        <v>61.65945671112194</v>
       </c>
       <c r="C270" t="n">
-        <v>53.76818417344814</v>
+        <v>61.66223412202194</v>
       </c>
       <c r="D270" t="n">
-        <v>-0.0004633260682496143</v>
+        <v>-0.002777410900002053</v>
       </c>
     </row>
     <row r="271">
@@ -4221,13 +4221,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>53.80423933492676</v>
+        <v>63.8384878927947</v>
       </c>
       <c r="C271" t="n">
-        <v>53.83075766709158</v>
+        <v>63.91225841739843</v>
       </c>
       <c r="D271" t="n">
-        <v>-0.02651833216481236</v>
+        <v>-0.07377052460372369</v>
       </c>
     </row>
     <row r="272">
@@ -4235,13 +4235,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>53.90916085532371</v>
+        <v>63.84663307980789</v>
       </c>
       <c r="C272" t="n">
-        <v>53.80390111151608</v>
+        <v>63.85832988497156</v>
       </c>
       <c r="D272" t="n">
-        <v>0.105259743807629</v>
+        <v>-0.01169680516367322</v>
       </c>
     </row>
     <row r="273">
@@ -4249,13 +4249,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>59.78096472043056</v>
+        <v>63.85812113544029</v>
       </c>
       <c r="C273" t="n">
-        <v>59.78139329989487</v>
+        <v>63.87968604307519</v>
       </c>
       <c r="D273" t="n">
-        <v>-0.0004285794643053009</v>
+        <v>-0.02156490763489671</v>
       </c>
     </row>
     <row r="274">
@@ -4263,13 +4263,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>59.79107787748763</v>
+        <v>63.86239693683871</v>
       </c>
       <c r="C274" t="n">
-        <v>59.82151227376738</v>
+        <v>63.94633225127573</v>
       </c>
       <c r="D274" t="n">
-        <v>-0.03043439627974465</v>
+        <v>-0.08393531443702074</v>
       </c>
     </row>
     <row r="275">
@@ -4277,13 +4277,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>59.8206396621807</v>
+        <v>63.88622224598226</v>
       </c>
       <c r="C275" t="n">
-        <v>59.90261793568093</v>
+        <v>63.91792672499857</v>
       </c>
       <c r="D275" t="n">
-        <v>-0.08197827350023346</v>
+        <v>-0.03170447901631235</v>
       </c>
     </row>
     <row r="276">
@@ -4291,13 +4291,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>59.84328788122613</v>
+        <v>63.892863904348</v>
       </c>
       <c r="C276" t="n">
-        <v>59.86381067474043</v>
+        <v>63.91767103449612</v>
       </c>
       <c r="D276" t="n">
-        <v>-0.02052279351430286</v>
+        <v>-0.02480713014812608</v>
       </c>
     </row>
     <row r="277">
@@ -4305,13 +4305,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>59.85011003981396</v>
+        <v>63.89383001009763</v>
       </c>
       <c r="C277" t="n">
-        <v>59.93481867019289</v>
+        <v>64.03002794566619</v>
       </c>
       <c r="D277" t="n">
-        <v>-0.08470863037893395</v>
+        <v>-0.1361979355685605</v>
       </c>
     </row>
     <row r="278">
@@ -4319,13 +4319,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>59.85509283849489</v>
+        <v>63.91204004265846</v>
       </c>
       <c r="C278" t="n">
-        <v>59.90251232738015</v>
+        <v>64.00490454750303</v>
       </c>
       <c r="D278" t="n">
-        <v>-0.04741948888526082</v>
+        <v>-0.09286450484457021</v>
       </c>
     </row>
     <row r="279">
@@ -4333,13 +4333,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>59.89768770785395</v>
+        <v>63.91276682882413</v>
       </c>
       <c r="C279" t="n">
-        <v>59.9963674518056</v>
+        <v>63.92375566763426</v>
       </c>
       <c r="D279" t="n">
-        <v>-0.09867974395164936</v>
+        <v>-0.01098883881012824</v>
       </c>
     </row>
     <row r="280">
@@ -4347,13 +4347,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>59.91652906760622</v>
+        <v>63.91807058939285</v>
       </c>
       <c r="C280" t="n">
-        <v>59.96106090624806</v>
+        <v>63.99314293809196</v>
       </c>
       <c r="D280" t="n">
-        <v>-0.04453183864183785</v>
+        <v>-0.07507234869910917</v>
       </c>
     </row>
     <row r="281">
@@ -4361,13 +4361,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>59.92308371057129</v>
+        <v>63.93805665255502</v>
       </c>
       <c r="C281" t="n">
-        <v>59.89000301891054</v>
+        <v>63.97440484168042</v>
       </c>
       <c r="D281" t="n">
-        <v>0.03308069166075001</v>
+        <v>-0.03634818912539828</v>
       </c>
     </row>
     <row r="282">
@@ -4375,13 +4375,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>59.96315459203772</v>
+        <v>63.94986561799048</v>
       </c>
       <c r="C282" t="n">
-        <v>59.98434856616515</v>
+        <v>63.95007763039555</v>
       </c>
       <c r="D282" t="n">
-        <v>-0.02119397412742785</v>
+        <v>-0.0002120124050648542</v>
       </c>
     </row>
     <row r="283">
@@ -4389,13 +4389,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>62.43092236608371</v>
+        <v>63.96276226289434</v>
       </c>
       <c r="C283" t="n">
-        <v>62.51374659565364</v>
+        <v>63.99957324464012</v>
       </c>
       <c r="D283" t="n">
-        <v>-0.08282422956993685</v>
+        <v>-0.03681098174578068</v>
       </c>
     </row>
     <row r="284">
@@ -4403,13 +4403,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>62.44660149510938</v>
+        <v>63.98051951059777</v>
       </c>
       <c r="C284" t="n">
-        <v>62.59143658993517</v>
+        <v>63.9828559405094</v>
       </c>
       <c r="D284" t="n">
-        <v>-0.1448350948257939</v>
+        <v>-0.002336429911622417</v>
       </c>
     </row>
     <row r="285">
@@ -4417,13 +4417,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>62.46502298764488</v>
+        <v>63.99581860086953</v>
       </c>
       <c r="C285" t="n">
-        <v>62.50118349337471</v>
+        <v>64.00035077436439</v>
       </c>
       <c r="D285" t="n">
-        <v>-0.03616050572983198</v>
+        <v>-0.004532173494858682</v>
       </c>
     </row>
     <row r="286">
@@ -4431,13 +4431,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>62.47036047099199</v>
+        <v>64.00080900867151</v>
       </c>
       <c r="C286" t="n">
-        <v>62.60371436338722</v>
+        <v>64.07385295809645</v>
       </c>
       <c r="D286" t="n">
-        <v>-0.1333538923952275</v>
+        <v>-0.07304394942494241</v>
       </c>
     </row>
     <row r="287">
@@ -4445,13 +4445,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>62.55914001512372</v>
+        <v>64.01162560360099</v>
       </c>
       <c r="C287" t="n">
-        <v>62.56623668499802</v>
+        <v>64.0557534275577</v>
       </c>
       <c r="D287" t="n">
-        <v>-0.007096669874293582</v>
+        <v>-0.044127823956714</v>
       </c>
     </row>
     <row r="288">
@@ -4459,13 +4459,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>62.59836683624602</v>
+        <v>64.03950197711121</v>
       </c>
       <c r="C288" t="n">
-        <v>62.64963103538385</v>
+        <v>64.0618503279477</v>
       </c>
       <c r="D288" t="n">
-        <v>-0.05126419913783309</v>
+        <v>-0.02234835083648079</v>
       </c>
     </row>
     <row r="289">
@@ -4473,13 +4473,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>63.74415812733707</v>
+        <v>64.55994840438292</v>
       </c>
       <c r="C289" t="n">
-        <v>63.8872551451942</v>
+        <v>64.67172318070422</v>
       </c>
       <c r="D289" t="n">
-        <v>-0.1430970178571371</v>
+        <v>-0.1117747763212975</v>
       </c>
     </row>
     <row r="290">
@@ -4487,13 +4487,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>63.75929725442517</v>
+        <v>64.5626970103817</v>
       </c>
       <c r="C290" t="n">
-        <v>63.82884005132195</v>
+        <v>64.62948194909606</v>
       </c>
       <c r="D290" t="n">
-        <v>-0.06954279689678344</v>
+        <v>-0.06678493871436331</v>
       </c>
     </row>
     <row r="291">
@@ -4501,13 +4501,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>63.79461959436619</v>
+        <v>64.57116112308809</v>
       </c>
       <c r="C291" t="n">
-        <v>63.87304514191032</v>
+        <v>64.65083564925689</v>
       </c>
       <c r="D291" t="n">
-        <v>-0.07842554754412845</v>
+        <v>-0.07967452616880166</v>
       </c>
     </row>
     <row r="292">
@@ -4515,13 +4515,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>63.79468193197958</v>
+        <v>64.57342565448039</v>
       </c>
       <c r="C292" t="n">
-        <v>63.82795454677741</v>
+        <v>64.69198642092135</v>
       </c>
       <c r="D292" t="n">
-        <v>-0.03327261479782351</v>
+        <v>-0.1185607664409645</v>
       </c>
     </row>
     <row r="293">
@@ -4529,13 +4529,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>63.80094009706364</v>
+        <v>64.59227870967645</v>
       </c>
       <c r="C293" t="n">
-        <v>63.89942348549872</v>
+        <v>64.7020500992023</v>
       </c>
       <c r="D293" t="n">
-        <v>-0.09848338843507776</v>
+        <v>-0.1097713895258465</v>
       </c>
     </row>
     <row r="294">
@@ -4543,13 +4543,13 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>63.81216094640045</v>
+        <v>64.60342876747914</v>
       </c>
       <c r="C294" t="n">
-        <v>63.9008411857229</v>
+        <v>64.70067487428629</v>
       </c>
       <c r="D294" t="n">
-        <v>-0.08868023932244995</v>
+        <v>-0.09724610680714818</v>
       </c>
     </row>
     <row r="295">
@@ -4557,13 +4557,13 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>63.81574215152541</v>
+        <v>65.37796845171491</v>
       </c>
       <c r="C295" t="n">
-        <v>63.85005845702573</v>
+        <v>65.42632561676356</v>
       </c>
       <c r="D295" t="n">
-        <v>-0.03431630550032594</v>
+        <v>-0.04835716504865673</v>
       </c>
     </row>
     <row r="296">
@@ -4571,13 +4571,13 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>63.83147248643377</v>
+        <v>65.37917883233122</v>
       </c>
       <c r="C296" t="n">
-        <v>63.8846225490126</v>
+        <v>65.42690760919547</v>
       </c>
       <c r="D296" t="n">
-        <v>-0.0531500625788297</v>
+        <v>-0.04772877686424692</v>
       </c>
     </row>
     <row r="297">
@@ -4585,13 +4585,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>63.83731615652582</v>
+        <v>65.4056525811265</v>
       </c>
       <c r="C297" t="n">
-        <v>63.85417856175864</v>
+        <v>65.47975377039386</v>
       </c>
       <c r="D297" t="n">
-        <v>-0.01686240523282123</v>
+        <v>-0.07410118926735265</v>
       </c>
     </row>
     <row r="298">
@@ -4599,13 +4599,13 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>63.84835796685986</v>
+        <v>65.42249638924805</v>
       </c>
       <c r="C298" t="n">
-        <v>63.86200200834077</v>
+        <v>65.44095128275416</v>
       </c>
       <c r="D298" t="n">
-        <v>-0.0136440414809158</v>
+        <v>-0.01845489350610308</v>
       </c>
     </row>
     <row r="299">
@@ -4613,13 +4613,13 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>63.86430085700016</v>
+        <v>65.44013769115601</v>
       </c>
       <c r="C299" t="n">
-        <v>63.86806987943751</v>
+        <v>65.4789059237676</v>
       </c>
       <c r="D299" t="n">
-        <v>-0.003769022437346337</v>
+        <v>-0.03876823261158791</v>
       </c>
     </row>
     <row r="300">
@@ -4627,13 +4627,13 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>63.96018442531239</v>
+        <v>65.44552122933595</v>
       </c>
       <c r="C300" t="n">
-        <v>63.8383381798922</v>
+        <v>65.51270129134413</v>
       </c>
       <c r="D300" t="n">
-        <v>0.121846245420187</v>
+        <v>-0.06718006200817683</v>
       </c>
     </row>
     <row r="301">
@@ -4641,13 +4641,13 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>64.92420626030619</v>
+        <v>65.4669069213049</v>
       </c>
       <c r="C301" t="n">
-        <v>64.99967603048849</v>
+        <v>65.50690617506424</v>
       </c>
       <c r="D301" t="n">
-        <v>-0.07546977018229484</v>
+        <v>-0.03999925375934765</v>
       </c>
     </row>
     <row r="302">
@@ -4655,13 +4655,13 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>64.94080441725532</v>
+        <v>65.48324105005206</v>
       </c>
       <c r="C302" t="n">
-        <v>65.13766893496691</v>
+        <v>65.4853310622412</v>
       </c>
       <c r="D302" t="n">
-        <v>-0.1968645177115889</v>
+        <v>-0.002090012189142954</v>
       </c>
     </row>
     <row r="303">
@@ -4669,13 +4669,13 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>64.95081748925691</v>
+        <v>66.88813048124004</v>
       </c>
       <c r="C303" t="n">
-        <v>65.09927066093515</v>
+        <v>66.93930393080704</v>
       </c>
       <c r="D303" t="n">
-        <v>-0.1484531716782413</v>
+        <v>-0.05117344956700265</v>
       </c>
     </row>
     <row r="304">
@@ -4683,13 +4683,13 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>64.9628277057391</v>
+        <v>66.90222647530226</v>
       </c>
       <c r="C304" t="n">
-        <v>65.00364659381552</v>
+        <v>66.96282378239334</v>
       </c>
       <c r="D304" t="n">
-        <v>-0.04081888807641576</v>
+        <v>-0.06059730709108635</v>
       </c>
     </row>
     <row r="305">
@@ -4697,13 +4697,13 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>64.97766251448853</v>
+        <v>66.91233633269226</v>
       </c>
       <c r="C305" t="n">
-        <v>65.08765090634526</v>
+        <v>67.01380383503647</v>
       </c>
       <c r="D305" t="n">
-        <v>-0.1099883918567315</v>
+        <v>-0.1014675023442067</v>
       </c>
     </row>
     <row r="306">
@@ -4711,13 +4711,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>65.01148842675332</v>
+        <v>66.91686447885424</v>
       </c>
       <c r="C306" t="n">
-        <v>65.10749054841867</v>
+        <v>67.00974328518035</v>
       </c>
       <c r="D306" t="n">
-        <v>-0.09600212166535016</v>
+        <v>-0.09287880632611234</v>
       </c>
     </row>
     <row r="307">
@@ -4725,13 +4725,13 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>65.01570859476445</v>
+        <v>66.91795356327289</v>
       </c>
       <c r="C307" t="n">
-        <v>65.03756373708362</v>
+        <v>66.95157343444878</v>
       </c>
       <c r="D307" t="n">
-        <v>-0.02185514231916841</v>
+        <v>-0.03361987117588683</v>
       </c>
     </row>
     <row r="308">
@@ -4739,13 +4739,13 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>65.0222123357138</v>
+        <v>66.9468305672049</v>
       </c>
       <c r="C308" t="n">
-        <v>65.03176345028301</v>
+        <v>66.96743243814375</v>
       </c>
       <c r="D308" t="n">
-        <v>-0.009551114569205765</v>
+        <v>-0.02060187093884736</v>
       </c>
     </row>
     <row r="309">
@@ -4753,13 +4753,13 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>65.0336289908406</v>
+        <v>66.951562745339</v>
       </c>
       <c r="C309" t="n">
-        <v>65.06843467241022</v>
+        <v>66.98534738941217</v>
       </c>
       <c r="D309" t="n">
-        <v>-0.03480568156962249</v>
+        <v>-0.03378464407316528</v>
       </c>
     </row>
     <row r="310">
@@ -4767,13 +4767,13 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>65.11864459323616</v>
+        <v>66.97506631525586</v>
       </c>
       <c r="C310" t="n">
-        <v>65.13649314319575</v>
+        <v>66.98711370619954</v>
       </c>
       <c r="D310" t="n">
-        <v>-0.01784854995959506</v>
+        <v>-0.01204739094367824</v>
       </c>
     </row>
     <row r="311">
@@ -4781,13 +4781,13 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>65.12132477734933</v>
+        <v>66.97540228477698</v>
       </c>
       <c r="C311" t="n">
-        <v>65.12160392147354</v>
+        <v>66.97937369813391</v>
       </c>
       <c r="D311" t="n">
-        <v>-0.0002791441242067094</v>
+        <v>-0.003971413356936182</v>
       </c>
     </row>
     <row r="312">
@@ -4795,13 +4795,13 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>66.42495581772026</v>
+        <v>66.98367977511873</v>
       </c>
       <c r="C312" t="n">
-        <v>66.58450595965998</v>
+        <v>67.00904799132617</v>
       </c>
       <c r="D312" t="n">
-        <v>-0.1595501419397181</v>
+        <v>-0.02536821620743979</v>
       </c>
     </row>
     <row r="313">
@@ -4809,13 +4809,13 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>66.43348592408395</v>
+        <v>69.08919683735955</v>
       </c>
       <c r="C313" t="n">
-        <v>66.58005701199662</v>
+        <v>69.19306406345015</v>
       </c>
       <c r="D313" t="n">
-        <v>-0.1465710879126618</v>
+        <v>-0.1038672260905997</v>
       </c>
     </row>
     <row r="314">
@@ -4823,13 +4823,13 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>66.4733209404078</v>
+        <v>69.09131553141809</v>
       </c>
       <c r="C314" t="n">
-        <v>66.64116905145204</v>
+        <v>69.16955561310832</v>
       </c>
       <c r="D314" t="n">
-        <v>-0.1678481110442362</v>
+        <v>-0.07824008169022534</v>
       </c>
     </row>
     <row r="315">
@@ -4837,13 +4837,13 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>66.47679383603351</v>
+        <v>69.12383097320254</v>
       </c>
       <c r="C315" t="n">
-        <v>66.47813472203848</v>
+        <v>69.18189080744403</v>
       </c>
       <c r="D315" t="n">
-        <v>-0.001340886004967956</v>
+        <v>-0.05805983424149019</v>
       </c>
     </row>
     <row r="316">
@@ -4851,13 +4851,13 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>66.49105903987679</v>
+        <v>69.16260605404362</v>
       </c>
       <c r="C316" t="n">
-        <v>66.49989753425375</v>
+        <v>69.21216882807647</v>
       </c>
       <c r="D316" t="n">
-        <v>-0.008838494376959716</v>
+        <v>-0.04956277403285014</v>
       </c>
     </row>
     <row r="317">
@@ -4865,13 +4865,13 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>66.51034327115943</v>
+        <v>69.17849985221997</v>
       </c>
       <c r="C317" t="n">
-        <v>66.56624842193914</v>
+        <v>69.21478267643441</v>
       </c>
       <c r="D317" t="n">
-        <v>-0.05590515077970792</v>
+        <v>-0.03628282421443885</v>
       </c>
     </row>
     <row r="318">
@@ -4879,13 +4879,13 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>66.51699623384641</v>
+        <v>69.27240917314583</v>
       </c>
       <c r="C318" t="n">
-        <v>66.523222851626</v>
+        <v>69.35761238710667</v>
       </c>
       <c r="D318" t="n">
-        <v>-0.006226617779589105</v>
+        <v>-0.0852032139608383</v>
       </c>
     </row>
     <row r="319">
@@ -4893,13 +4893,13 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>66.52359244855246</v>
+        <v>69.27567572227223</v>
       </c>
       <c r="C319" t="n">
-        <v>66.55349047630371</v>
+        <v>69.39309975088722</v>
       </c>
       <c r="D319" t="n">
-        <v>-0.02989802775124417</v>
+        <v>-0.117424028614991</v>
       </c>
     </row>
     <row r="320">
@@ -4907,13 +4907,13 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>66.53015923257986</v>
+        <v>69.30277320041544</v>
       </c>
       <c r="C320" t="n">
-        <v>66.58622835276115</v>
+        <v>69.3167801076535</v>
       </c>
       <c r="D320" t="n">
-        <v>-0.05606912018129151</v>
+        <v>-0.01400690723805553</v>
       </c>
     </row>
     <row r="321">
@@ -4921,13 +4921,13 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>66.57749013636935</v>
+        <v>69.30403581013427</v>
       </c>
       <c r="C321" t="n">
-        <v>66.63895839652386</v>
+        <v>69.31608272652777</v>
       </c>
       <c r="D321" t="n">
-        <v>-0.06146826015451268</v>
+        <v>-0.01204691639350131</v>
       </c>
     </row>
     <row r="322">
@@ -4935,13 +4935,13 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>66.58570134625904</v>
+        <v>69.32745006213825</v>
       </c>
       <c r="C322" t="n">
-        <v>66.62767354740566</v>
+        <v>69.39671727302502</v>
       </c>
       <c r="D322" t="n">
-        <v>-0.04197220114662059</v>
+        <v>-0.06926721088676402</v>
       </c>
     </row>
     <row r="323">
@@ -4949,13 +4949,13 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>66.58690421268628</v>
+        <v>70.13471502848536</v>
       </c>
       <c r="C323" t="n">
-        <v>66.6035726301098</v>
+        <v>70.19722263755855</v>
       </c>
       <c r="D323" t="n">
-        <v>-0.01666841742351721</v>
+        <v>-0.06250760907319375</v>
       </c>
     </row>
     <row r="324">
@@ -4963,13 +4963,13 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>70.11283271202829</v>
+        <v>70.13851957683846</v>
       </c>
       <c r="C324" t="n">
-        <v>70.1416097122535</v>
+        <v>70.14595188542916</v>
       </c>
       <c r="D324" t="n">
-        <v>-0.02877700022520457</v>
+        <v>-0.007432308590693992</v>
       </c>
     </row>
     <row r="325">
@@ -4977,13 +4977,13 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>70.12788483190369</v>
+        <v>70.14177588856035</v>
       </c>
       <c r="C325" t="n">
-        <v>70.2236608323588</v>
+        <v>70.23377351361854</v>
       </c>
       <c r="D325" t="n">
-        <v>-0.09577600045511758</v>
+        <v>-0.0919976250581982</v>
       </c>
     </row>
     <row r="326">
@@ -4991,13 +4991,13 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>70.12974198000209</v>
+        <v>70.15068784914483</v>
       </c>
       <c r="C326" t="n">
-        <v>70.166081804844</v>
+        <v>70.21487957620354</v>
       </c>
       <c r="D326" t="n">
-        <v>-0.03633982484190312</v>
+        <v>-0.0641917270587129</v>
       </c>
     </row>
     <row r="327">
@@ -5005,13 +5005,13 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>70.16634001557202</v>
+        <v>70.15148163852629</v>
       </c>
       <c r="C327" t="n">
-        <v>70.29744045818613</v>
+        <v>70.17405855224922</v>
       </c>
       <c r="D327" t="n">
-        <v>-0.1311004426141125</v>
+        <v>-0.02257691372292925</v>
       </c>
     </row>
     <row r="328">
@@ -5019,13 +5019,13 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>70.16692234569979</v>
+        <v>70.17684760914925</v>
       </c>
       <c r="C328" t="n">
-        <v>70.32646500685202</v>
+        <v>70.21182002735983</v>
       </c>
       <c r="D328" t="n">
-        <v>-0.1595426611522299</v>
+        <v>-0.03497241821058594</v>
       </c>
     </row>
     <row r="329">
@@ -5033,13 +5033,13 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>70.19947579763212</v>
+        <v>70.18179577138231</v>
       </c>
       <c r="C329" t="n">
-        <v>70.2512154143715</v>
+        <v>70.24651391203437</v>
       </c>
       <c r="D329" t="n">
-        <v>-0.05173961673938265</v>
+        <v>-0.06471814065206161</v>
       </c>
     </row>
     <row r="330">
@@ -5047,13 +5047,13 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>70.21818757161402</v>
+        <v>70.20392834737306</v>
       </c>
       <c r="C330" t="n">
-        <v>70.31944870551168</v>
+        <v>70.2661896657324</v>
       </c>
       <c r="D330" t="n">
-        <v>-0.1012611338976512</v>
+        <v>-0.06226131835933302</v>
       </c>
     </row>
     <row r="331">
@@ -5061,13 +5061,13 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>70.24444537794352</v>
+        <v>70.22888660920621</v>
       </c>
       <c r="C331" t="n">
-        <v>70.28752645966115</v>
+        <v>70.25227117829321</v>
       </c>
       <c r="D331" t="n">
-        <v>-0.04308108171763081</v>
+        <v>-0.02338456908699982</v>
       </c>
     </row>
     <row r="332">
@@ -5075,13 +5075,13 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>70.25602125460421</v>
+        <v>70.22920975755206</v>
       </c>
       <c r="C332" t="n">
-        <v>70.33182988573419</v>
+        <v>70.2798933388769</v>
       </c>
       <c r="D332" t="n">
-        <v>-0.0758086311299877</v>
+        <v>-0.05068358132484718</v>
       </c>
     </row>
     <row r="333">
@@ -5089,13 +5089,13 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>70.28136837065679</v>
+        <v>70.99195768279164</v>
       </c>
       <c r="C333" t="n">
-        <v>70.32817441577608</v>
+        <v>71.07091778923397</v>
       </c>
       <c r="D333" t="n">
-        <v>-0.04680604511928266</v>
+        <v>-0.07896010644233797</v>
       </c>
     </row>
     <row r="334">
@@ -5103,13 +5103,13 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>70.29675084454728</v>
+        <v>70.99674403152785</v>
       </c>
       <c r="C334" t="n">
-        <v>70.33119217378361</v>
+        <v>70.9971242837067</v>
       </c>
       <c r="D334" t="n">
-        <v>-0.03444132923632992</v>
+        <v>-0.0003802521788429658</v>
       </c>
     </row>
     <row r="335">
@@ -5117,13 +5117,13 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>70.35201739870467</v>
+        <v>71.02517482456145</v>
       </c>
       <c r="C335" t="n">
-        <v>70.28738839817588</v>
+        <v>71.07000572761751</v>
       </c>
       <c r="D335" t="n">
-        <v>0.06462900052879661</v>
+        <v>-0.04483090305606652</v>
       </c>
     </row>
     <row r="336">
@@ -5131,13 +5131,13 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>71.68788853188487</v>
+        <v>71.03777023167081</v>
       </c>
       <c r="C336" t="n">
-        <v>71.73638377680795</v>
+        <v>71.11255812365039</v>
       </c>
       <c r="D336" t="n">
-        <v>-0.04849524492308888</v>
+        <v>-0.07478789197958235</v>
       </c>
     </row>
     <row r="337">
@@ -5145,13 +5145,13 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>71.69094948624965</v>
+        <v>71.04152908506028</v>
       </c>
       <c r="C337" t="n">
-        <v>71.8463210306535</v>
+        <v>71.04303372480328</v>
       </c>
       <c r="D337" t="n">
-        <v>-0.1553715444038488</v>
+        <v>-0.001504639743004077</v>
       </c>
     </row>
     <row r="338">
@@ -5159,13 +5159,13 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>71.72037066313885</v>
+        <v>71.05161770140936</v>
       </c>
       <c r="C338" t="n">
-        <v>71.84463921739334</v>
+        <v>71.06792826290716</v>
       </c>
       <c r="D338" t="n">
-        <v>-0.1242685542544848</v>
+        <v>-0.01631056149780363</v>
       </c>
     </row>
     <row r="339">
@@ -5173,13 +5173,13 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>71.72316928071709</v>
+        <v>71.05584213478369</v>
       </c>
       <c r="C339" t="n">
-        <v>71.73616205700962</v>
+        <v>71.10111489809833</v>
       </c>
       <c r="D339" t="n">
-        <v>-0.01299277629253481</v>
+        <v>-0.04527276331464236</v>
       </c>
     </row>
     <row r="340">
@@ -5187,13 +5187,13 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>71.72708923496518</v>
+        <v>71.246503594353</v>
       </c>
       <c r="C340" t="n">
-        <v>71.88641570930652</v>
+        <v>71.36526466453098</v>
       </c>
       <c r="D340" t="n">
-        <v>-0.1593264743413414</v>
+        <v>-0.1187610701779818</v>
       </c>
     </row>
     <row r="341">
@@ -5201,13 +5201,13 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>71.72765742928499</v>
+        <v>71.26402150836925</v>
       </c>
       <c r="C341" t="n">
-        <v>71.77113577448975</v>
+        <v>71.36049597430379</v>
       </c>
       <c r="D341" t="n">
-        <v>-0.04347834520476113</v>
+        <v>-0.09647446593453424</v>
       </c>
     </row>
     <row r="342">
@@ -5215,13 +5215,13 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>71.73392298673551</v>
+        <v>71.27666840571415</v>
       </c>
       <c r="C342" t="n">
-        <v>71.74938396868473</v>
+        <v>71.38378374882772</v>
       </c>
       <c r="D342" t="n">
-        <v>-0.01546098194921797</v>
+        <v>-0.107115343113577</v>
       </c>
     </row>
     <row r="343">
@@ -5229,13 +5229,13 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>71.79297896337962</v>
+        <v>71.28140415447344</v>
       </c>
       <c r="C343" t="n">
-        <v>71.90074901000787</v>
+        <v>71.34430684110102</v>
       </c>
       <c r="D343" t="n">
-        <v>-0.1077700466282465</v>
+        <v>-0.06290268662758081</v>
       </c>
     </row>
     <row r="344">
@@ -5243,13 +5243,13 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>71.80872645170901</v>
+        <v>71.30240528027676</v>
       </c>
       <c r="C344" t="n">
-        <v>71.86256824643593</v>
+        <v>71.35387593206495</v>
       </c>
       <c r="D344" t="n">
-        <v>-0.05384179472692097</v>
+        <v>-0.05147065178819332</v>
       </c>
     </row>
     <row r="345">
@@ -5257,13 +5257,13 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>71.8120700957524</v>
+        <v>71.34460345778227</v>
       </c>
       <c r="C345" t="n">
-        <v>71.83625935088529</v>
+        <v>71.35101220147745</v>
       </c>
       <c r="D345" t="n">
-        <v>-0.02418925513288173</v>
+        <v>-0.00640874369517519</v>
       </c>
     </row>
     <row r="346">
@@ -5271,13 +5271,13 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>71.83472998166715</v>
+        <v>71.92073130631364</v>
       </c>
       <c r="C346" t="n">
-        <v>71.88913721785931</v>
+        <v>72.04621189754255</v>
       </c>
       <c r="D346" t="n">
-        <v>-0.05440723619216215</v>
+        <v>-0.1254805912289072</v>
       </c>
     </row>
     <row r="347">
@@ -5285,13 +5285,13 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>71.84938803618135</v>
+        <v>71.92796697132513</v>
       </c>
       <c r="C347" t="n">
-        <v>71.80457905810188</v>
+        <v>72.04470382077103</v>
       </c>
       <c r="D347" t="n">
-        <v>0.04480897807947315</v>
+        <v>-0.1167368494458998</v>
       </c>
     </row>
     <row r="348">
@@ -5299,13 +5299,13 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>71.86120468224715</v>
+        <v>71.93117098526639</v>
       </c>
       <c r="C348" t="n">
-        <v>71.87344604144643</v>
+        <v>72.04930479195973</v>
       </c>
       <c r="D348" t="n">
-        <v>-0.0122413591992796</v>
+        <v>-0.1181338066933364</v>
       </c>
     </row>
     <row r="349">
@@ -5313,13 +5313,13 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>72.17988665156126</v>
+        <v>71.94272657987695</v>
       </c>
       <c r="C349" t="n">
-        <v>72.20864461720699</v>
+        <v>72.00902156372581</v>
       </c>
       <c r="D349" t="n">
-        <v>-0.02875796564572397</v>
+        <v>-0.0662949838488629</v>
       </c>
     </row>
     <row r="350">
@@ -5327,13 +5327,13 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>72.186273771617</v>
+        <v>71.95730718466943</v>
       </c>
       <c r="C350" t="n">
-        <v>72.21277196387084</v>
+        <v>71.97743365680834</v>
       </c>
       <c r="D350" t="n">
-        <v>-0.02649819225383965</v>
+        <v>-0.02012647213891228</v>
       </c>
     </row>
     <row r="351">
@@ -5341,13 +5341,13 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>72.23557424097316</v>
+        <v>71.97469517171795</v>
       </c>
       <c r="C351" t="n">
-        <v>72.23725436337376</v>
+        <v>72.0075498268444</v>
       </c>
       <c r="D351" t="n">
-        <v>-0.001680122400600226</v>
+        <v>-0.03285465512644237</v>
       </c>
     </row>
     <row r="352">
@@ -5355,13 +5355,13 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>72.24222707905739</v>
+        <v>71.9816737512876</v>
       </c>
       <c r="C352" t="n">
-        <v>72.30777770124214</v>
+        <v>71.99911715166164</v>
       </c>
       <c r="D352" t="n">
-        <v>-0.06555062218475882</v>
+        <v>-0.01744340037403447</v>
       </c>
     </row>
     <row r="353">
@@ -5369,13 +5369,13 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>72.26679081398721</v>
+        <v>72.0346253541172</v>
       </c>
       <c r="C353" t="n">
-        <v>72.29101553116502</v>
+        <v>72.04926084630476</v>
       </c>
       <c r="D353" t="n">
-        <v>-0.02422471717780184</v>
+        <v>-0.01463549218756555</v>
       </c>
     </row>
     <row r="354">
@@ -5383,13 +5383,13 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>72.28252452020675</v>
+        <v>74.09150866601595</v>
       </c>
       <c r="C354" t="n">
-        <v>72.28605165852589</v>
+        <v>74.16843944149555</v>
       </c>
       <c r="D354" t="n">
-        <v>-0.003527138319142864</v>
+        <v>-0.07693077547959604</v>
       </c>
     </row>
     <row r="355">
@@ -5397,13 +5397,13 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>72.3001286829253</v>
+        <v>74.10650373567923</v>
       </c>
       <c r="C355" t="n">
-        <v>71.88745369885247</v>
+        <v>74.17287213815001</v>
       </c>
       <c r="D355" t="n">
-        <v>0.4126749840728365</v>
+        <v>-0.06636840247078624</v>
       </c>
     </row>
     <row r="356">
@@ -5411,13 +5411,13 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>72.30401311068258</v>
+        <v>74.11551876031258</v>
       </c>
       <c r="C356" t="n">
-        <v>72.34450320060292</v>
+        <v>74.18407810893011</v>
       </c>
       <c r="D356" t="n">
-        <v>-0.04049008992033976</v>
+        <v>-0.06855934861752644</v>
       </c>
     </row>
     <row r="357">
@@ -5425,13 +5425,13 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>72.31202928709769</v>
+        <v>74.11786824888635</v>
       </c>
       <c r="C357" t="n">
-        <v>72.31980607151733</v>
+        <v>74.17234202877097</v>
       </c>
       <c r="D357" t="n">
-        <v>-0.007776784419647242</v>
+        <v>-0.0544737798846171</v>
       </c>
     </row>
     <row r="358">
@@ -5439,13 +5439,13 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>72.32843437233609</v>
+        <v>74.1198891696649</v>
       </c>
       <c r="C358" t="n">
-        <v>72.39991703179199</v>
+        <v>74.24576519098278</v>
       </c>
       <c r="D358" t="n">
-        <v>-0.07148265945589571</v>
+        <v>-0.1258760213178789</v>
       </c>
     </row>
     <row r="359">
@@ -5453,13 +5453,13 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>72.33187436754605</v>
+        <v>74.14597058211218</v>
       </c>
       <c r="C359" t="n">
-        <v>72.34938349224532</v>
+        <v>74.20339143924922</v>
       </c>
       <c r="D359" t="n">
-        <v>-0.01750912469927357</v>
+        <v>-0.05742085713703204</v>
       </c>
     </row>
     <row r="360">
@@ -5467,13 +5467,13 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>72.34995337176677</v>
+        <v>74.16229672999292</v>
       </c>
       <c r="C360" t="n">
-        <v>72.39734292522903</v>
+        <v>74.19309459317536</v>
       </c>
       <c r="D360" t="n">
-        <v>-0.04738955346225282</v>
+        <v>-0.0307978631824426</v>
       </c>
     </row>
     <row r="361">
@@ -5481,13 +5481,13 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>72.37628283530105</v>
+        <v>74.16414854777514</v>
       </c>
       <c r="C361" t="n">
-        <v>72.38786316588524</v>
+        <v>74.24990161042625</v>
       </c>
       <c r="D361" t="n">
-        <v>-0.01158033058418084</v>
+        <v>-0.08575306265110783</v>
       </c>
     </row>
     <row r="362">
@@ -5495,13 +5495,13 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>72.39032020959723</v>
+        <v>74.19114978764948</v>
       </c>
       <c r="C362" t="n">
-        <v>72.39462269234468</v>
+        <v>74.25474091438964</v>
       </c>
       <c r="D362" t="n">
-        <v>-0.004302482747448266</v>
+        <v>-0.06359112674016387</v>
       </c>
     </row>
     <row r="363">
@@ -5509,13 +5509,13 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>72.43533353656272</v>
+        <v>74.21492487416235</v>
       </c>
       <c r="C363" t="n">
-        <v>72.3222507258581</v>
+        <v>74.24801883440151</v>
       </c>
       <c r="D363" t="n">
-        <v>0.1130828107046256</v>
+        <v>-0.03309396023915667</v>
       </c>
     </row>
     <row r="364">
@@ -5523,13 +5523,13 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>72.69632209170919</v>
+        <v>74.2314803155526</v>
       </c>
       <c r="C364" t="n">
-        <v>72.3589828672367</v>
+        <v>74.23307308196271</v>
       </c>
       <c r="D364" t="n">
-        <v>0.3373392244724869</v>
+        <v>-0.001592766410112745</v>
       </c>
     </row>
     <row r="365">
@@ -5537,13 +5537,13 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>76.71633545078498</v>
+        <v>74.36716166013785</v>
       </c>
       <c r="C365" t="n">
-        <v>76.8145755625234</v>
+        <v>74.45654631818847</v>
       </c>
       <c r="D365" t="n">
-        <v>-0.09824011173841996</v>
+        <v>-0.08938465805061924</v>
       </c>
     </row>
     <row r="366">
@@ -5551,13 +5551,13 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>76.7272577337169</v>
+        <v>74.40322710314412</v>
       </c>
       <c r="C366" t="n">
-        <v>76.91634904737498</v>
+        <v>74.4425878627132</v>
       </c>
       <c r="D366" t="n">
-        <v>-0.1890913136580821</v>
+        <v>-0.03936075956907814</v>
       </c>
     </row>
     <row r="367">
@@ -5565,13 +5565,13 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>76.73753877567643</v>
+        <v>74.40894102893252</v>
       </c>
       <c r="C367" t="n">
-        <v>76.9021294575317</v>
+        <v>74.46991965831553</v>
       </c>
       <c r="D367" t="n">
-        <v>-0.1645906818552731</v>
+        <v>-0.06097862938301546</v>
       </c>
     </row>
     <row r="368">
@@ -5579,13 +5579,13 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>76.76330005185864</v>
+        <v>74.41752544614336</v>
       </c>
       <c r="C368" t="n">
-        <v>76.81317586947635</v>
+        <v>74.42807403759031</v>
       </c>
       <c r="D368" t="n">
-        <v>-0.04987581761771764</v>
+        <v>-0.01054859144694831</v>
       </c>
     </row>
     <row r="369">
@@ -5593,13 +5593,13 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>76.88270441839536</v>
+        <v>74.43978296125539</v>
       </c>
       <c r="C369" t="n">
-        <v>76.89625877661472</v>
+        <v>74.46642049230221</v>
       </c>
       <c r="D369" t="n">
-        <v>-0.01355435821935203</v>
+        <v>-0.02663753104681632</v>
       </c>
     </row>
     <row r="370">
@@ -5607,13 +5607,13 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>77.20123621832923</v>
+        <v>74.44930574971588</v>
       </c>
       <c r="C370" t="n">
-        <v>77.39769287128837</v>
+        <v>74.47076958549007</v>
       </c>
       <c r="D370" t="n">
-        <v>-0.1964566529591423</v>
+        <v>-0.02146383577419897</v>
       </c>
     </row>
     <row r="371">
@@ -5621,13 +5621,13 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>77.22079430165027</v>
+        <v>74.44991520136425</v>
       </c>
       <c r="C371" t="n">
-        <v>77.40315988928546</v>
+        <v>74.5546471827476</v>
       </c>
       <c r="D371" t="n">
-        <v>-0.1823655876351893</v>
+        <v>-0.1047319813833525</v>
       </c>
     </row>
     <row r="372">
@@ -5635,13 +5635,13 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>77.23046204669369</v>
+        <v>74.53031334000421</v>
       </c>
       <c r="C372" t="n">
-        <v>77.40265365476469</v>
+        <v>74.55026083716913</v>
       </c>
       <c r="D372" t="n">
-        <v>-0.1721916080710031</v>
+        <v>-0.01994749716492095</v>
       </c>
     </row>
     <row r="373">
@@ -5649,13 +5649,13 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>77.26555844893757</v>
+        <v>75.117084458447</v>
       </c>
       <c r="C373" t="n">
-        <v>77.39627419371178</v>
+        <v>75.24237227498074</v>
       </c>
       <c r="D373" t="n">
-        <v>-0.1307157447742071</v>
+        <v>-0.1252878165337421</v>
       </c>
     </row>
     <row r="374">
@@ -5663,13 +5663,13 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>77.28841483692023</v>
+        <v>75.1264038430114</v>
       </c>
       <c r="C374" t="n">
-        <v>77.37162821339466</v>
+        <v>75.22657571401686</v>
       </c>
       <c r="D374" t="n">
-        <v>-0.08321337647443272</v>
+        <v>-0.1001718710054575</v>
       </c>
     </row>
     <row r="375">
@@ -5677,13 +5677,13 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>77.31400153760535</v>
+        <v>75.13430719913005</v>
       </c>
       <c r="C375" t="n">
-        <v>77.40752142975776</v>
+        <v>75.22166259405175</v>
       </c>
       <c r="D375" t="n">
-        <v>-0.09351989215241474</v>
+        <v>-0.08735539492170119</v>
       </c>
     </row>
     <row r="376">
@@ -5691,13 +5691,13 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>77.31695721985379</v>
+        <v>75.15444587180323</v>
       </c>
       <c r="C376" t="n">
-        <v>77.33174599501076</v>
+        <v>75.16775720931469</v>
       </c>
       <c r="D376" t="n">
-        <v>-0.01478877515697263</v>
+        <v>-0.0133113375114533</v>
       </c>
     </row>
     <row r="377">
@@ -5705,13 +5705,13 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>77.40290677346275</v>
+        <v>75.15716889992545</v>
       </c>
       <c r="C377" t="n">
-        <v>77.40788825428629</v>
+        <v>75.23642812410853</v>
       </c>
       <c r="D377" t="n">
-        <v>-0.004981480823545326</v>
+        <v>-0.07925922418307607</v>
       </c>
     </row>
     <row r="378">
@@ -5719,13 +5719,13 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>77.7716373178657</v>
+        <v>75.17467346971146</v>
       </c>
       <c r="C378" t="n">
-        <v>77.82842807192166</v>
+        <v>75.22781824722229</v>
       </c>
       <c r="D378" t="n">
-        <v>-0.05679075405596734</v>
+        <v>-0.05314477751082336</v>
       </c>
     </row>
     <row r="379">
@@ -5733,13 +5733,13 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>77.78311884921193</v>
+        <v>75.17867374197927</v>
       </c>
       <c r="C379" t="n">
-        <v>77.94765199281427</v>
+        <v>75.20197659325693</v>
       </c>
       <c r="D379" t="n">
-        <v>-0.1645331436023412</v>
+        <v>-0.02330285127766274</v>
       </c>
     </row>
     <row r="380">
@@ -5747,13 +5747,13 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>77.81894269356773</v>
+        <v>75.17976540761519</v>
       </c>
       <c r="C380" t="n">
-        <v>77.83547852197792</v>
+        <v>75.19134742815973</v>
       </c>
       <c r="D380" t="n">
-        <v>-0.01653582841018419</v>
+        <v>-0.01158202054453739</v>
       </c>
     </row>
     <row r="381">
@@ -5761,13 +5761,13 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>77.85957153986091</v>
+        <v>75.1984031360644</v>
       </c>
       <c r="C381" t="n">
-        <v>77.89852524713517</v>
+        <v>75.22278714322684</v>
       </c>
       <c r="D381" t="n">
-        <v>-0.03895370727425984</v>
+        <v>-0.02438400716243905</v>
       </c>
     </row>
     <row r="382">
@@ -5775,13 +5775,13 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>77.86789287050514</v>
+        <v>75.202787234371</v>
       </c>
       <c r="C382" t="n">
-        <v>77.93991757240728</v>
+        <v>75.21139043386415</v>
       </c>
       <c r="D382" t="n">
-        <v>-0.07202470190213717</v>
+        <v>-0.008603199493151692</v>
       </c>
     </row>
     <row r="383">
@@ -5789,13 +5789,13 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>77.8738672132654</v>
+        <v>75.20680958138659</v>
       </c>
       <c r="C383" t="n">
-        <v>77.87940286721468</v>
+        <v>75.20889331845501</v>
       </c>
       <c r="D383" t="n">
-        <v>-0.005535653949280572</v>
+        <v>-0.00208373706841769</v>
       </c>
     </row>
     <row r="384">
@@ -5803,13 +5803,13 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>77.93684806688628</v>
+        <v>77.22213600185209</v>
       </c>
       <c r="C384" t="n">
-        <v>77.94117192765975</v>
+        <v>77.24924324224735</v>
       </c>
       <c r="D384" t="n">
-        <v>-0.004323860773467914</v>
+        <v>-0.02710724039525303</v>
       </c>
     </row>
     <row r="385">
@@ -5817,13 +5817,13 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>84.65748678523768</v>
+        <v>77.24657068392382</v>
       </c>
       <c r="C385" t="n">
-        <v>84.71570314903447</v>
+        <v>77.28253274142612</v>
       </c>
       <c r="D385" t="n">
-        <v>-0.05821636379678807</v>
+        <v>-0.03596205750230297</v>
       </c>
     </row>
     <row r="386">
@@ -5831,13 +5831,13 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>84.67890992336149</v>
+        <v>77.25928457848261</v>
       </c>
       <c r="C386" t="n">
-        <v>84.87319223993542</v>
+        <v>77.31978726811069</v>
       </c>
       <c r="D386" t="n">
-        <v>-0.1942823165739327</v>
+        <v>-0.06050268962808047</v>
       </c>
     </row>
     <row r="387">
@@ -5845,13 +5845,13 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>84.68572080457415</v>
+        <v>77.33576589452719</v>
       </c>
       <c r="C387" t="n">
-        <v>84.79525236587092</v>
+        <v>77.34175151189658</v>
       </c>
       <c r="D387" t="n">
-        <v>-0.1095315612967767</v>
+        <v>-0.005985617369390184</v>
       </c>
     </row>
     <row r="388">
@@ -5859,13 +5859,13 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>84.70730050607827</v>
+        <v>77.33661795256477</v>
       </c>
       <c r="C388" t="n">
-        <v>84.79051791195558</v>
+        <v>77.37976337755194</v>
       </c>
       <c r="D388" t="n">
-        <v>-0.08321740587730631</v>
+        <v>-0.04314542498717344</v>
       </c>
     </row>
     <row r="389">
@@ -5873,13 +5873,13 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>84.72347516618481</v>
+        <v>77.3371554962625</v>
       </c>
       <c r="C389" t="n">
-        <v>84.74174567230979</v>
+        <v>77.33861165833659</v>
       </c>
       <c r="D389" t="n">
-        <v>-0.01827050612497771</v>
+        <v>-0.001456162074092049</v>
       </c>
     </row>
     <row r="390">
@@ -5887,13 +5887,13 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>84.76391188338717</v>
+        <v>81.50913314379264</v>
       </c>
       <c r="C390" t="n">
-        <v>84.78082156956435</v>
+        <v>81.53125497804901</v>
       </c>
       <c r="D390" t="n">
-        <v>-0.01690968617718625</v>
+        <v>-0.02212183425636738</v>
       </c>
     </row>
     <row r="391">
@@ -5901,13 +5901,13 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>84.78397710605761</v>
+        <v>81.51189467102147</v>
       </c>
       <c r="C391" t="n">
-        <v>84.83165508411584</v>
+        <v>81.57147505282161</v>
       </c>
       <c r="D391" t="n">
-        <v>-0.04767797805823193</v>
+        <v>-0.05958038180014569</v>
       </c>
     </row>
     <row r="392">
@@ -5915,13 +5915,13 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>84.79956942924473</v>
+        <v>81.51997889080145</v>
       </c>
       <c r="C392" t="n">
-        <v>84.85462418261548</v>
+        <v>81.63279517225494</v>
       </c>
       <c r="D392" t="n">
-        <v>-0.05505475337075438</v>
+        <v>-0.1128162814534903</v>
       </c>
     </row>
     <row r="393">
@@ -5929,13 +5929,13 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>84.80856130971543</v>
+        <v>81.52189829666219</v>
       </c>
       <c r="C393" t="n">
-        <v>84.87457514009388</v>
+        <v>81.60105371446974</v>
       </c>
       <c r="D393" t="n">
-        <v>-0.0660138303784521</v>
+        <v>-0.07915541780755575</v>
       </c>
     </row>
     <row r="394">
@@ -5943,13 +5943,13 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>84.80901048929771</v>
+        <v>81.53228929884477</v>
       </c>
       <c r="C394" t="n">
-        <v>84.85138134253543</v>
+        <v>81.5894023158278</v>
       </c>
       <c r="D394" t="n">
-        <v>-0.0423708532377276</v>
+        <v>-0.05711301698302407</v>
       </c>
     </row>
     <row r="395">
@@ -5957,13 +5957,13 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>84.83575250340809</v>
+        <v>81.54391914119587</v>
       </c>
       <c r="C395" t="n">
-        <v>84.87381427302951</v>
+        <v>81.57257578470397</v>
       </c>
       <c r="D395" t="n">
-        <v>-0.0380617696214216</v>
+        <v>-0.02865664350809993</v>
       </c>
     </row>
     <row r="396">
@@ -5971,13 +5971,13 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>84.9395681540156</v>
+        <v>81.54641475877297</v>
       </c>
       <c r="C396" t="n">
-        <v>84.82176902037337</v>
+        <v>81.63830203382481</v>
       </c>
       <c r="D396" t="n">
-        <v>0.1177991336422366</v>
+        <v>-0.09188727505184602</v>
       </c>
     </row>
     <row r="397">
@@ -5985,13 +5985,13 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>84.96154055280896</v>
+        <v>81.55808260037792</v>
       </c>
       <c r="C397" t="n">
-        <v>84.8734544792552</v>
+        <v>81.58060924814653</v>
       </c>
       <c r="D397" t="n">
-        <v>0.08808607355375386</v>
+        <v>-0.02252664776861479</v>
       </c>
     </row>
     <row r="398">
@@ -5999,13 +5999,13 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>86.96234458892367</v>
+        <v>81.56000401553463</v>
       </c>
       <c r="C398" t="n">
-        <v>87.17245957950962</v>
+        <v>81.59634195450826</v>
       </c>
       <c r="D398" t="n">
-        <v>-0.2101149905859501</v>
+        <v>-0.03633793897363091</v>
       </c>
     </row>
     <row r="399">
@@ -6013,13 +6013,13 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>86.97300825779061</v>
+        <v>81.57274845638038</v>
       </c>
       <c r="C399" t="n">
-        <v>87.11584860327153</v>
+        <v>81.64548925891461</v>
       </c>
       <c r="D399" t="n">
-        <v>-0.14284034548092</v>
+        <v>-0.0727408025342271</v>
       </c>
     </row>
     <row r="400">
@@ -6027,13 +6027,13 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>87.02375362268158</v>
+        <v>81.57984237283766</v>
       </c>
       <c r="C400" t="n">
-        <v>87.14581893549941</v>
+        <v>81.62821964771706</v>
       </c>
       <c r="D400" t="n">
-        <v>-0.1220653128178242</v>
+        <v>-0.04837727487939958</v>
       </c>
     </row>
     <row r="401">
@@ -6041,13 +6041,13 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>87.04244259536317</v>
+        <v>81.59198173038315</v>
       </c>
       <c r="C401" t="n">
-        <v>87.07391402802</v>
+        <v>81.64101847148373</v>
       </c>
       <c r="D401" t="n">
-        <v>-0.03147143265682928</v>
+        <v>-0.04903674110057921</v>
       </c>
     </row>
     <row r="402">
@@ -6055,13 +6055,13 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>87.06950703148902</v>
+        <v>82.93089766541682</v>
       </c>
       <c r="C402" t="n">
-        <v>87.07222409826852</v>
+        <v>82.93571600689981</v>
       </c>
       <c r="D402" t="n">
-        <v>-0.002717066779496236</v>
+        <v>-0.004818341482987876</v>
       </c>
     </row>
     <row r="403">
@@ -6069,13 +6069,13 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>87.08024715974108</v>
+        <v>82.97378804925226</v>
       </c>
       <c r="C403" t="n">
-        <v>87.16089874151723</v>
+        <v>83.06077689279577</v>
       </c>
       <c r="D403" t="n">
-        <v>-0.08065158177615217</v>
+        <v>-0.08698884354350866</v>
       </c>
     </row>
     <row r="404">
@@ -6083,13 +6083,13 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>87.08558365734871</v>
+        <v>82.97633045166462</v>
       </c>
       <c r="C404" t="n">
-        <v>87.13990790841552</v>
+        <v>83.00942021413985</v>
       </c>
       <c r="D404" t="n">
-        <v>-0.05432425106681649</v>
+        <v>-0.03308976247522821</v>
       </c>
     </row>
     <row r="405">
@@ -6097,13 +6097,13 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>87.20674572347879</v>
+        <v>82.97876791002754</v>
       </c>
       <c r="C405" t="n">
-        <v>87.31828717746565</v>
+        <v>83.04703823512114</v>
       </c>
       <c r="D405" t="n">
-        <v>-0.1115414539868596</v>
+        <v>-0.06827032509359299</v>
       </c>
     </row>
     <row r="406">
@@ -6111,13 +6111,13 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>87.20741223119896</v>
+        <v>82.98493286498245</v>
       </c>
       <c r="C406" t="n">
-        <v>87.42029593941139</v>
+        <v>83.03737760320384</v>
       </c>
       <c r="D406" t="n">
-        <v>-0.2128837082124306</v>
+        <v>-0.05244473822138218</v>
       </c>
     </row>
     <row r="407">
@@ -6125,13 +6125,13 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>87.23732057615325</v>
+        <v>82.99102024886686</v>
       </c>
       <c r="C407" t="n">
-        <v>87.36002852498004</v>
+        <v>83.05434304985714</v>
       </c>
       <c r="D407" t="n">
-        <v>-0.1227079488267862</v>
+        <v>-0.06332280099027798</v>
       </c>
     </row>
     <row r="408">
@@ -6139,13 +6139,13 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>87.24340750765965</v>
+        <v>82.99969490168957</v>
       </c>
       <c r="C408" t="n">
-        <v>87.27391095854365</v>
+        <v>83.08605748752471</v>
       </c>
       <c r="D408" t="n">
-        <v>-0.03050345088399808</v>
+        <v>-0.08636258583514689</v>
       </c>
     </row>
     <row r="409">
@@ -6153,13 +6153,13 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>87.24644571869723</v>
+        <v>83.00676797187819</v>
       </c>
       <c r="C409" t="n">
-        <v>87.25477364542715</v>
+        <v>83.07130572878965</v>
       </c>
       <c r="D409" t="n">
-        <v>-0.008327926729919</v>
+        <v>-0.06453775691146291</v>
       </c>
     </row>
     <row r="410">
@@ -6167,13 +6167,13 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>87.29444450881174</v>
+        <v>83.07647303721771</v>
       </c>
       <c r="C410" t="n">
-        <v>87.4035223665078</v>
+        <v>83.09261678669569</v>
       </c>
       <c r="D410" t="n">
-        <v>-0.1090778576960645</v>
+        <v>-0.01614374947797614</v>
       </c>
     </row>
     <row r="411">
@@ -6181,13 +6181,13 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>87.29765882885984</v>
+        <v>83.08604955143942</v>
       </c>
       <c r="C411" t="n">
-        <v>87.3490560034876</v>
+        <v>83.10067139379684</v>
       </c>
       <c r="D411" t="n">
-        <v>-0.05139717462776616</v>
+        <v>-0.01462184235742825</v>
       </c>
     </row>
     <row r="412">
@@ -6195,13 +6195,13 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>87.34591342350078</v>
+        <v>83.73350916037116</v>
       </c>
       <c r="C412" t="n">
-        <v>87.42058458041451</v>
+        <v>83.84264238590657</v>
       </c>
       <c r="D412" t="n">
-        <v>-0.07467115691373749</v>
+        <v>-0.109133225535416</v>
       </c>
     </row>
     <row r="413">
@@ -6209,13 +6209,13 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>87.3513660340888</v>
+        <v>83.73467483595593</v>
       </c>
       <c r="C413" t="n">
-        <v>87.38527954196888</v>
+        <v>83.87185188420398</v>
       </c>
       <c r="D413" t="n">
-        <v>-0.03391350788008651</v>
+        <v>-0.1371770482480485</v>
       </c>
     </row>
     <row r="414">
@@ -6223,13 +6223,13 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>87.38871848450968</v>
+        <v>83.76580149235535</v>
       </c>
       <c r="C414" t="n">
-        <v>87.41210458651642</v>
+        <v>83.87518782790917</v>
       </c>
       <c r="D414" t="n">
-        <v>-0.02338610200673941</v>
+        <v>-0.1093863355538218</v>
       </c>
     </row>
     <row r="415">
@@ -6237,13 +6237,13 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>87.41256368121249</v>
+        <v>83.77105980056685</v>
       </c>
       <c r="C415" t="n">
-        <v>87.43374806760967</v>
+        <v>83.87964806736468</v>
       </c>
       <c r="D415" t="n">
-        <v>-0.02118438639718079</v>
+        <v>-0.1085882667978382</v>
       </c>
     </row>
     <row r="416">
@@ -6251,13 +6251,13 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>87.43528241328234</v>
+        <v>83.79602423364722</v>
       </c>
       <c r="C416" t="n">
-        <v>87.48234916507346</v>
+        <v>83.88016765903525</v>
       </c>
       <c r="D416" t="n">
-        <v>-0.04706675179112096</v>
+        <v>-0.0841434253880351</v>
       </c>
     </row>
     <row r="417">
@@ -6265,13 +6265,13 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>87.47428161926167</v>
+        <v>83.82925602436877</v>
       </c>
       <c r="C417" t="n">
-        <v>87.50106352000468</v>
+        <v>83.83123813723984</v>
       </c>
       <c r="D417" t="n">
-        <v>-0.02678190074300346</v>
+        <v>-0.001982112871061759</v>
       </c>
     </row>
     <row r="418">
@@ -6279,13 +6279,13 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>87.50864176286692</v>
+        <v>83.83318078911779</v>
       </c>
       <c r="C418" t="n">
-        <v>87.53047420198077</v>
+        <v>83.86377489485034</v>
       </c>
       <c r="D418" t="n">
-        <v>-0.02183243911385091</v>
+        <v>-0.03059410573254695</v>
       </c>
     </row>
     <row r="419">
@@ -6293,13 +6293,13 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>87.5142917135603</v>
+        <v>83.84230257107359</v>
       </c>
       <c r="C419" t="n">
-        <v>87.52108281528596</v>
+        <v>83.86453660813615</v>
       </c>
       <c r="D419" t="n">
-        <v>-0.006791101725667659</v>
+        <v>-0.02223403706256022</v>
       </c>
     </row>
     <row r="420">
@@ -6307,13 +6307,13 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>87.80684994565787</v>
+        <v>83.8897494714934</v>
       </c>
       <c r="C420" t="n">
-        <v>87.40655556465082</v>
+        <v>83.89763502570813</v>
       </c>
       <c r="D420" t="n">
-        <v>0.4002943810070576</v>
+        <v>-0.007885554214723811</v>
       </c>
     </row>
     <row r="421">
@@ -6321,13 +6321,13 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>88.48701975318868</v>
+        <v>85.10352364378639</v>
       </c>
       <c r="C421" t="n">
-        <v>88.68274675950073</v>
+        <v>85.23885785828382</v>
       </c>
       <c r="D421" t="n">
-        <v>-0.1957270063120546</v>
+        <v>-0.1353342144974334</v>
       </c>
     </row>
     <row r="422">
@@ -6335,13 +6335,13 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>88.51763601627007</v>
+        <v>85.10405753131641</v>
       </c>
       <c r="C422" t="n">
-        <v>88.69104466569462</v>
+        <v>85.17090510178592</v>
       </c>
       <c r="D422" t="n">
-        <v>-0.1734086494245446</v>
+        <v>-0.06684757046950551</v>
       </c>
     </row>
     <row r="423">
@@ -6349,13 +6349,13 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>88.51812236569825</v>
+        <v>85.11388178131858</v>
       </c>
       <c r="C423" t="n">
-        <v>88.61198039233136</v>
+        <v>85.1426096048496</v>
       </c>
       <c r="D423" t="n">
-        <v>-0.09385802663311438</v>
+        <v>-0.028727823531014</v>
       </c>
     </row>
     <row r="424">
@@ -6363,13 +6363,13 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>88.52117369406128</v>
+        <v>85.13263351835316</v>
       </c>
       <c r="C424" t="n">
-        <v>88.58351606288477</v>
+        <v>85.16562457823552</v>
       </c>
       <c r="D424" t="n">
-        <v>-0.06234236882349364</v>
+        <v>-0.03299105988236306</v>
       </c>
     </row>
     <row r="425">
@@ -6377,13 +6377,13 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>88.54951504317806</v>
+        <v>85.15686531215989</v>
       </c>
       <c r="C425" t="n">
-        <v>88.60116876554811</v>
+        <v>85.17464072319483</v>
       </c>
       <c r="D425" t="n">
-        <v>-0.05165372237004817</v>
+        <v>-0.01777541103493263</v>
       </c>
     </row>
     <row r="426">
@@ -6391,13 +6391,13 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>88.5531399585234</v>
+        <v>85.16389387452804</v>
       </c>
       <c r="C426" t="n">
-        <v>88.63956822368624</v>
+        <v>85.1678771290843</v>
       </c>
       <c r="D426" t="n">
-        <v>-0.08642826516283719</v>
+        <v>-0.003983254556260363</v>
       </c>
     </row>
     <row r="427">
@@ -6405,13 +6405,13 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>88.55616237921676</v>
+        <v>85.17178462521609</v>
       </c>
       <c r="C427" t="n">
-        <v>88.58412272854397</v>
+        <v>85.22124354246833</v>
       </c>
       <c r="D427" t="n">
-        <v>-0.02796034932721625</v>
+        <v>-0.04945891725223817</v>
       </c>
     </row>
     <row r="428">
@@ -6419,13 +6419,13 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>88.59864564098443</v>
+        <v>85.18258538446648</v>
       </c>
       <c r="C428" t="n">
-        <v>88.6912855505675</v>
+        <v>85.19885829669792</v>
       </c>
       <c r="D428" t="n">
-        <v>-0.09263990958307033</v>
+        <v>-0.01627291223144312</v>
       </c>
     </row>
     <row r="429">
@@ -6433,13 +6433,13 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>88.6069900796647</v>
+        <v>85.18445105069914</v>
       </c>
       <c r="C429" t="n">
-        <v>88.6169180034537</v>
+        <v>85.23674159583766</v>
       </c>
       <c r="D429" t="n">
-        <v>-0.009927923789007309</v>
+        <v>-0.0522905451385185</v>
       </c>
     </row>
     <row r="430">
@@ -6447,13 +6447,13 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>88.63007278798293</v>
+        <v>85.18872382908144</v>
       </c>
       <c r="C430" t="n">
-        <v>88.63381094398129</v>
+        <v>85.24562950775451</v>
       </c>
       <c r="D430" t="n">
-        <v>-0.003738155998362913</v>
+        <v>-0.0569056786730755</v>
       </c>
     </row>
     <row r="431">
@@ -6461,13 +6461,13 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>88.64404436674322</v>
+        <v>85.20995453582159</v>
       </c>
       <c r="C431" t="n">
-        <v>88.69816757717936</v>
+        <v>85.23423351572139</v>
       </c>
       <c r="D431" t="n">
-        <v>-0.05412321043614554</v>
+        <v>-0.02427897989979044</v>
       </c>
     </row>
     <row r="432">
@@ -6475,13 +6475,13 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>88.64448236057198</v>
+        <v>85.21105296269252</v>
       </c>
       <c r="C432" t="n">
-        <v>88.68069559613075</v>
+        <v>85.23047509863871</v>
       </c>
       <c r="D432" t="n">
-        <v>-0.03621323555876188</v>
+        <v>-0.01942213594618636</v>
       </c>
     </row>
     <row r="433">
@@ -6489,13 +6489,13 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>88.66457180130926</v>
+        <v>85.24309963097372</v>
       </c>
       <c r="C433" t="n">
-        <v>88.67624261362603</v>
+        <v>85.27213992721599</v>
       </c>
       <c r="D433" t="n">
-        <v>-0.01167081231676548</v>
+        <v>-0.02904029624227178</v>
       </c>
     </row>
     <row r="434">
@@ -6503,13 +6503,13 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>88.66602534068741</v>
+        <v>85.24351840381614</v>
       </c>
       <c r="C434" t="n">
-        <v>88.68676277044624</v>
+        <v>85.26499212248677</v>
       </c>
       <c r="D434" t="n">
-        <v>-0.02073742975882453</v>
+        <v>-0.02147371867063441</v>
       </c>
     </row>
     <row r="435">
@@ -6517,13 +6517,13 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>88.69101682406382</v>
+        <v>85.25369004445494</v>
       </c>
       <c r="C435" t="n">
-        <v>88.69811028808023</v>
+        <v>85.30220137309634</v>
       </c>
       <c r="D435" t="n">
-        <v>-0.00709346401640687</v>
+        <v>-0.04851132864139629</v>
       </c>
     </row>
     <row r="436">
@@ -6531,13 +6531,13 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>89.97099566386814</v>
+        <v>85.26709791595427</v>
       </c>
       <c r="C436" t="n">
-        <v>89.97207417750408</v>
+        <v>85.3136885774278</v>
       </c>
       <c r="D436" t="n">
-        <v>-0.00107851363594591</v>
+        <v>-0.0465906614735303</v>
       </c>
     </row>
     <row r="437">
@@ -6545,13 +6545,13 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>89.9809799565417</v>
+        <v>85.29158841413457</v>
       </c>
       <c r="C437" t="n">
-        <v>90.14487815089004</v>
+        <v>85.30215316314494</v>
       </c>
       <c r="D437" t="n">
-        <v>-0.1638981943483344</v>
+        <v>-0.01056474901037063</v>
       </c>
     </row>
     <row r="438">
@@ -6559,13 +6559,13 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>89.99722635360912</v>
+        <v>85.30267463410064</v>
       </c>
       <c r="C438" t="n">
-        <v>90.00643613040063</v>
+        <v>85.31939359703578</v>
       </c>
       <c r="D438" t="n">
-        <v>-0.009209776791507807</v>
+        <v>-0.01671896293514408</v>
       </c>
     </row>
     <row r="439">
@@ -6573,13 +6573,13 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>90.01021097417832</v>
+        <v>86.15552622776143</v>
       </c>
       <c r="C439" t="n">
-        <v>90.01940010840467</v>
+        <v>86.19802744118971</v>
       </c>
       <c r="D439" t="n">
-        <v>-0.009189134226346596</v>
+        <v>-0.04250121342828095</v>
       </c>
     </row>
     <row r="440">
@@ -6587,13 +6587,13 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>90.1219664417987</v>
+        <v>86.18589121369074</v>
       </c>
       <c r="C440" t="n">
-        <v>90.15221174954257</v>
+        <v>86.28884433809834</v>
       </c>
       <c r="D440" t="n">
-        <v>-0.03024530774386847</v>
+        <v>-0.1029531244076054</v>
       </c>
     </row>
     <row r="441">
@@ -6601,13 +6601,13 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>91.69088667969571</v>
+        <v>86.21490057903516</v>
       </c>
       <c r="C441" t="n">
-        <v>91.80799234636228</v>
+        <v>86.26485346235302</v>
       </c>
       <c r="D441" t="n">
-        <v>-0.1171056666665748</v>
+        <v>-0.0499528833178573</v>
       </c>
     </row>
     <row r="442">
@@ -6615,13 +6615,13 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>91.69643375346649</v>
+        <v>86.21950091744853</v>
       </c>
       <c r="C442" t="n">
-        <v>91.7564398928414</v>
+        <v>86.29590856406679</v>
       </c>
       <c r="D442" t="n">
-        <v>-0.06000613937490584</v>
+        <v>-0.07640764661826438</v>
       </c>
     </row>
     <row r="443">
@@ -6629,13 +6629,13 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>91.7094726638348</v>
+        <v>86.22633474024536</v>
       </c>
       <c r="C443" t="n">
-        <v>91.79052778538475</v>
+        <v>86.25372899810769</v>
       </c>
       <c r="D443" t="n">
-        <v>-0.08105512154995154</v>
+        <v>-0.0273942578623263</v>
       </c>
     </row>
     <row r="444">
@@ -6643,13 +6643,13 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>91.74744226280581</v>
+        <v>86.22875644593174</v>
       </c>
       <c r="C444" t="n">
-        <v>91.87895370237905</v>
+        <v>86.23778789703064</v>
       </c>
       <c r="D444" t="n">
-        <v>-0.1315114395732451</v>
+        <v>-0.009031451098906018</v>
       </c>
     </row>
     <row r="445">
@@ -6657,13 +6657,13 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>91.76372505241841</v>
+        <v>86.23240935339048</v>
       </c>
       <c r="C445" t="n">
-        <v>91.77401365232149</v>
+        <v>86.23634021465175</v>
       </c>
       <c r="D445" t="n">
-        <v>-0.01028859990307751</v>
+        <v>-0.003930861261267182</v>
       </c>
     </row>
     <row r="446">
@@ -6671,13 +6671,13 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>91.77267305161597</v>
+        <v>86.23644370327158</v>
       </c>
       <c r="C446" t="n">
-        <v>91.77646357681355</v>
+        <v>86.26303362356467</v>
       </c>
       <c r="D446" t="n">
-        <v>-0.003790525197587158</v>
+        <v>-0.02658992029309104</v>
       </c>
     </row>
     <row r="447">
@@ -6685,13 +6685,13 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>93.83748393833537</v>
+        <v>86.23720394984419</v>
       </c>
       <c r="C447" t="n">
-        <v>93.93488107873675</v>
+        <v>86.28869593385592</v>
       </c>
       <c r="D447" t="n">
-        <v>-0.09739714040138381</v>
+        <v>-0.05149198401173294</v>
       </c>
     </row>
     <row r="448">
@@ -6699,13 +6699,13 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>93.8431695387158</v>
+        <v>86.24881495251135</v>
       </c>
       <c r="C448" t="n">
-        <v>93.99741403881116</v>
+        <v>86.2489167971942</v>
       </c>
       <c r="D448" t="n">
-        <v>-0.1542445000953592</v>
+        <v>-0.0001018446828453534</v>
       </c>
     </row>
     <row r="449">
@@ -6713,13 +6713,13 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>93.85125382263006</v>
+        <v>86.26751099239658</v>
       </c>
       <c r="C449" t="n">
-        <v>94.04812412744502</v>
+        <v>86.27499846258705</v>
       </c>
       <c r="D449" t="n">
-        <v>-0.1968703048149649</v>
+        <v>-0.007487470190469026</v>
       </c>
     </row>
     <row r="450">
@@ -6727,13 +6727,13 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>93.87792823998799</v>
+        <v>86.27818968503928</v>
       </c>
       <c r="C450" t="n">
-        <v>93.89722421943692</v>
+        <v>86.28995216093317</v>
       </c>
       <c r="D450" t="n">
-        <v>-0.01929597944892691</v>
+        <v>-0.01176247589388879</v>
       </c>
     </row>
     <row r="451">
@@ -6741,13 +6741,13 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>93.88822143968937</v>
+        <v>86.28209563707745</v>
       </c>
       <c r="C451" t="n">
-        <v>93.89056350159056</v>
+        <v>86.31084858887519</v>
       </c>
       <c r="D451" t="n">
-        <v>-0.002342061901188686</v>
+        <v>-0.02875295179774184</v>
       </c>
     </row>
     <row r="452">
@@ -6755,13 +6755,13 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>93.91865310312203</v>
+        <v>86.28993776057338</v>
       </c>
       <c r="C452" t="n">
-        <v>93.98984337678712</v>
+        <v>86.2912267889858</v>
       </c>
       <c r="D452" t="n">
-        <v>-0.07119027366509556</v>
+        <v>-0.001289028412415405</v>
       </c>
     </row>
     <row r="453">
@@ -6769,13 +6769,13 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>93.92229624013582</v>
+        <v>86.29415283266262</v>
       </c>
       <c r="C453" t="n">
-        <v>93.99693997165004</v>
+        <v>86.30183154576801</v>
       </c>
       <c r="D453" t="n">
-        <v>-0.07464373151421455</v>
+        <v>-0.007678713105391921</v>
       </c>
     </row>
     <row r="454">
@@ -6783,13 +6783,13 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>93.92339326860689</v>
+        <v>88.38517054660025</v>
       </c>
       <c r="C454" t="n">
-        <v>93.92504048903655</v>
+        <v>88.44966816171625</v>
       </c>
       <c r="D454" t="n">
-        <v>-0.001647220429660479</v>
+        <v>-0.06449761511599661</v>
       </c>
     </row>
     <row r="455">
@@ -6797,13 +6797,13 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>93.92609742512441</v>
+        <v>88.45060485946242</v>
       </c>
       <c r="C455" t="n">
-        <v>94.04097092150347</v>
+        <v>88.51685370500643</v>
       </c>
       <c r="D455" t="n">
-        <v>-0.1148734963790616</v>
+        <v>-0.06624884554400978</v>
       </c>
     </row>
     <row r="456">
@@ -6811,13 +6811,13 @@
         <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>93.94579327810006</v>
+        <v>88.46343256066686</v>
       </c>
       <c r="C456" t="n">
-        <v>93.97618334548812</v>
+        <v>88.46586650411129</v>
       </c>
       <c r="D456" t="n">
-        <v>-0.03039006738806904</v>
+        <v>-0.002433943444430042</v>
       </c>
     </row>
     <row r="457">
@@ -6825,13 +6825,13 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>93.97005463019015</v>
+        <v>88.4642341938564</v>
       </c>
       <c r="C457" t="n">
-        <v>93.98803734166233</v>
+        <v>88.46723927687204</v>
       </c>
       <c r="D457" t="n">
-        <v>-0.017982711472186</v>
+        <v>-0.003005083015636956</v>
       </c>
     </row>
     <row r="458">
@@ -6839,13 +6839,13 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>93.97781310778237</v>
+        <v>88.47006710506157</v>
       </c>
       <c r="C458" t="n">
-        <v>94.01920218542851</v>
+        <v>88.5183605981763</v>
       </c>
       <c r="D458" t="n">
-        <v>-0.0413890776461443</v>
+        <v>-0.04829349311472697</v>
       </c>
     </row>
     <row r="459">
@@ -6853,13 +6853,13 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>95.72491294137349</v>
+        <v>88.50013821350946</v>
       </c>
       <c r="C459" t="n">
-        <v>95.91396801324125</v>
+        <v>88.51731779503464</v>
       </c>
       <c r="D459" t="n">
-        <v>-0.1890550718677559</v>
+        <v>-0.01717958152518406</v>
       </c>
     </row>
     <row r="460">
@@ -6867,13 +6867,13 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>95.73638795063097</v>
+        <v>88.50567891294388</v>
       </c>
       <c r="C460" t="n">
-        <v>95.93670602019931</v>
+        <v>88.51750849845413</v>
       </c>
       <c r="D460" t="n">
-        <v>-0.2003180695683398</v>
+        <v>-0.01182958551025592</v>
       </c>
     </row>
     <row r="461">
@@ -6881,13 +6881,13 @@
         <v>459</v>
       </c>
       <c r="B461" t="n">
-        <v>95.73658683519174</v>
+        <v>88.73381815396654</v>
       </c>
       <c r="C461" t="n">
-        <v>95.86395949593326</v>
+        <v>88.8020779156589</v>
       </c>
       <c r="D461" t="n">
-        <v>-0.1273726607415142</v>
+        <v>-0.06825976169236014</v>
       </c>
     </row>
     <row r="462">
@@ -6895,13 +6895,13 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>95.74170659555553</v>
+        <v>88.74335873144457</v>
       </c>
       <c r="C462" t="n">
-        <v>95.86651915239662</v>
+        <v>88.7447685782</v>
       </c>
       <c r="D462" t="n">
-        <v>-0.1248125568410927</v>
+        <v>-0.001409846755421995</v>
       </c>
     </row>
     <row r="463">
@@ -6909,13 +6909,13 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>95.74201162462285</v>
+        <v>88.74691850516467</v>
       </c>
       <c r="C463" t="n">
-        <v>95.86836109944866</v>
+        <v>88.85610619757993</v>
       </c>
       <c r="D463" t="n">
-        <v>-0.1263494748258154</v>
+        <v>-0.1091876924152615</v>
       </c>
     </row>
     <row r="464">
@@ -6923,13 +6923,13 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>95.74739592365019</v>
+        <v>88.75904558480892</v>
       </c>
       <c r="C464" t="n">
-        <v>95.77324676452405</v>
+        <v>88.80090870945517</v>
       </c>
       <c r="D464" t="n">
-        <v>-0.02585084087385781</v>
+        <v>-0.0418631246462553</v>
       </c>
     </row>
     <row r="465">
@@ -6937,13 +6937,13 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>95.75915698344592</v>
+        <v>88.7598082166311</v>
       </c>
       <c r="C465" t="n">
-        <v>95.90901650912897</v>
+        <v>88.76136791018521</v>
       </c>
       <c r="D465" t="n">
-        <v>-0.1498595256830555</v>
+        <v>-0.001559693554114006</v>
       </c>
     </row>
     <row r="466">
@@ -6951,13 +6951,13 @@
         <v>464</v>
       </c>
       <c r="B466" t="n">
-        <v>95.76368552157611</v>
+        <v>88.77803051048132</v>
       </c>
       <c r="C466" t="n">
-        <v>95.76765331262641</v>
+        <v>88.81322003131237</v>
       </c>
       <c r="D466" t="n">
-        <v>-0.003967791050300207</v>
+        <v>-0.03518952083105376</v>
       </c>
     </row>
     <row r="467">
@@ -6965,13 +6965,13 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>95.76410905891558</v>
+        <v>88.78876227779787</v>
       </c>
       <c r="C467" t="n">
-        <v>95.84172366447292</v>
+        <v>88.8536478017666</v>
       </c>
       <c r="D467" t="n">
-        <v>-0.07761460555734345</v>
+        <v>-0.06488552396872649</v>
       </c>
     </row>
     <row r="468">
@@ -6979,13 +6979,13 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>95.79770393302846</v>
+        <v>88.80575794196795</v>
       </c>
       <c r="C468" t="n">
-        <v>95.81060047599391</v>
+        <v>88.86052721237594</v>
       </c>
       <c r="D468" t="n">
-        <v>-0.01289654296544995</v>
+        <v>-0.05476927040798785</v>
       </c>
     </row>
     <row r="469">
@@ -6993,13 +6993,13 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>95.81762652584274</v>
+        <v>88.82085648802716</v>
       </c>
       <c r="C469" t="n">
-        <v>95.88401141403381</v>
+        <v>88.85135178779127</v>
       </c>
       <c r="D469" t="n">
-        <v>-0.06638488819106669</v>
+        <v>-0.03049529976411236</v>
       </c>
     </row>
     <row r="470">
@@ -7007,13 +7007,13 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>95.81819361055264</v>
+        <v>88.8554075719244</v>
       </c>
       <c r="C470" t="n">
-        <v>95.89675847648655</v>
+        <v>88.8696739167741</v>
       </c>
       <c r="D470" t="n">
-        <v>-0.0785648659339131</v>
+        <v>-0.0142663448497018</v>
       </c>
     </row>
     <row r="471">
@@ -7021,13 +7021,13 @@
         <v>469</v>
       </c>
       <c r="B471" t="n">
-        <v>95.89615799438104</v>
+        <v>88.93106068912226</v>
       </c>
       <c r="C471" t="n">
-        <v>95.91580981212651</v>
+        <v>89.06448841514803</v>
       </c>
       <c r="D471" t="n">
-        <v>-0.0196518177454692</v>
+        <v>-0.1334277260257721</v>
       </c>
     </row>
     <row r="472">
@@ -7035,13 +7035,13 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>95.89946457515092</v>
+        <v>88.93749560659811</v>
       </c>
       <c r="C472" t="n">
-        <v>95.91647070752212</v>
+        <v>89.00344371487165</v>
       </c>
       <c r="D472" t="n">
-        <v>-0.01700613237120763</v>
+        <v>-0.06594810827354536</v>
       </c>
     </row>
     <row r="473">
@@ -7049,13 +7049,13 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>97.57842427484161</v>
+        <v>88.94179488557471</v>
       </c>
       <c r="C473" t="n">
-        <v>97.66903835064326</v>
+        <v>89.03783350353378</v>
       </c>
       <c r="D473" t="n">
-        <v>-0.09061407580165337</v>
+        <v>-0.0960386179590671</v>
       </c>
     </row>
     <row r="474">
@@ -7063,13 +7063,13 @@
         <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>97.60670656095488</v>
+        <v>88.96301777430944</v>
       </c>
       <c r="C474" t="n">
-        <v>97.64483283360568</v>
+        <v>89.08052877304742</v>
       </c>
       <c r="D474" t="n">
-        <v>-0.03812627265079982</v>
+        <v>-0.1175109987379841</v>
       </c>
     </row>
     <row r="475">
@@ -7077,13 +7077,13 @@
         <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>97.62526169217298</v>
+        <v>88.96957598375892</v>
       </c>
       <c r="C475" t="n">
-        <v>97.71085310305644</v>
+        <v>89.07253027311795</v>
       </c>
       <c r="D475" t="n">
-        <v>-0.08559141088345257</v>
+        <v>-0.1029542893590332</v>
       </c>
     </row>
     <row r="476">
@@ -7091,13 +7091,13 @@
         <v>474</v>
       </c>
       <c r="B476" t="n">
-        <v>97.63981486321957</v>
+        <v>88.97582583828091</v>
       </c>
       <c r="C476" t="n">
-        <v>97.69920025807798</v>
+        <v>89.12283254062787</v>
       </c>
       <c r="D476" t="n">
-        <v>-0.05938539485840977</v>
+        <v>-0.1470067023469568</v>
       </c>
     </row>
     <row r="477">
@@ -7105,13 +7105,13 @@
         <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>97.64259025479301</v>
+        <v>88.99058715106334</v>
       </c>
       <c r="C477" t="n">
-        <v>97.69119441211953</v>
+        <v>89.01138563160499</v>
       </c>
       <c r="D477" t="n">
-        <v>-0.04860415732652257</v>
+        <v>-0.02079848054165723</v>
       </c>
     </row>
     <row r="478">
@@ -7119,13 +7119,13 @@
         <v>476</v>
       </c>
       <c r="B478" t="n">
-        <v>97.65082808415953</v>
+        <v>88.99163556865888</v>
       </c>
       <c r="C478" t="n">
-        <v>97.66198469696201</v>
+        <v>88.99733863364409</v>
       </c>
       <c r="D478" t="n">
-        <v>-0.01115661280248048</v>
+        <v>-0.005703064985212336</v>
       </c>
     </row>
     <row r="479">
@@ -7133,13 +7133,13 @@
         <v>477</v>
       </c>
       <c r="B479" t="n">
-        <v>97.71930583012366</v>
+        <v>88.99265476096475</v>
       </c>
       <c r="C479" t="n">
-        <v>97.74546117315701</v>
+        <v>89.0538097768973</v>
       </c>
       <c r="D479" t="n">
-        <v>-0.0261553430333521</v>
+        <v>-0.0611550159325418</v>
       </c>
     </row>
     <row r="480">
@@ -7147,13 +7147,13 @@
         <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>97.75284809243735</v>
+        <v>88.99447299541345</v>
       </c>
       <c r="C480" t="n">
-        <v>97.76562654535245</v>
+        <v>89.05860220878937</v>
       </c>
       <c r="D480" t="n">
-        <v>-0.01277845291510005</v>
+        <v>-0.06412921337592081</v>
       </c>
     </row>
     <row r="481">
@@ -7161,13 +7161,13 @@
         <v>479</v>
       </c>
       <c r="B481" t="n">
-        <v>97.76285611661744</v>
+        <v>89.00935976293485</v>
       </c>
       <c r="C481" t="n">
-        <v>97.76395750679529</v>
+        <v>89.03754712941097</v>
       </c>
       <c r="D481" t="n">
-        <v>-0.001101390177851158</v>
+        <v>-0.02818736647611786</v>
       </c>
     </row>
     <row r="482">
@@ -7175,13 +7175,1553 @@
         <v>480</v>
       </c>
       <c r="B482" t="n">
-        <v>97.77940074196715</v>
+        <v>89.02548459814295</v>
       </c>
       <c r="C482" t="n">
-        <v>97.6632714413941</v>
+        <v>89.05159205940235</v>
       </c>
       <c r="D482" t="n">
-        <v>0.1161293005730499</v>
+        <v>-0.02610746125940011</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" t="n">
+        <v>89.02943699976595</v>
+      </c>
+      <c r="C483" t="n">
+        <v>89.0464983507859</v>
+      </c>
+      <c r="D483" t="n">
+        <v>-0.01706135101994732</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" t="n">
+        <v>89.05176741906192</v>
+      </c>
+      <c r="C484" t="n">
+        <v>89.07850646158356</v>
+      </c>
+      <c r="D484" t="n">
+        <v>-0.0267390425216405</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" t="n">
+        <v>89.06865685606039</v>
+      </c>
+      <c r="C485" t="n">
+        <v>89.10476483836476</v>
+      </c>
+      <c r="D485" t="n">
+        <v>-0.0361079823043724</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" t="n">
+        <v>89.73918999331768</v>
+      </c>
+      <c r="C486" t="n">
+        <v>89.79226539086781</v>
+      </c>
+      <c r="D486" t="n">
+        <v>-0.05307539755013124</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" t="n">
+        <v>89.742566545985</v>
+      </c>
+      <c r="C487" t="n">
+        <v>89.81054276593677</v>
+      </c>
+      <c r="D487" t="n">
+        <v>-0.06797621995177394</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="B488" t="n">
+        <v>89.74375973457818</v>
+      </c>
+      <c r="C488" t="n">
+        <v>89.78048293983086</v>
+      </c>
+      <c r="D488" t="n">
+        <v>-0.03672320525268447</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="B489" t="n">
+        <v>89.74432811896179</v>
+      </c>
+      <c r="C489" t="n">
+        <v>89.82249002794053</v>
+      </c>
+      <c r="D489" t="n">
+        <v>-0.07816190897874264</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="B490" t="n">
+        <v>89.7493159810809</v>
+      </c>
+      <c r="C490" t="n">
+        <v>89.78046076174185</v>
+      </c>
+      <c r="D490" t="n">
+        <v>-0.03114478066095216</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="n">
+        <v>489</v>
+      </c>
+      <c r="B491" t="n">
+        <v>89.76880964051139</v>
+      </c>
+      <c r="C491" t="n">
+        <v>89.80856057760039</v>
+      </c>
+      <c r="D491" t="n">
+        <v>-0.03975093708899635</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="B492" t="n">
+        <v>89.81349843411277</v>
+      </c>
+      <c r="C492" t="n">
+        <v>89.84750943981334</v>
+      </c>
+      <c r="D492" t="n">
+        <v>-0.03401100570056315</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="n">
+        <v>491</v>
+      </c>
+      <c r="B493" t="n">
+        <v>89.82541420659417</v>
+      </c>
+      <c r="C493" t="n">
+        <v>89.82908774965215</v>
+      </c>
+      <c r="D493" t="n">
+        <v>-0.003673543057971074</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B494" t="n">
+        <v>89.84676869230803</v>
+      </c>
+      <c r="C494" t="n">
+        <v>89.88115627165016</v>
+      </c>
+      <c r="D494" t="n">
+        <v>-0.03438757934212333</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B495" t="n">
+        <v>89.85084837518251</v>
+      </c>
+      <c r="C495" t="n">
+        <v>89.85779357365145</v>
+      </c>
+      <c r="D495" t="n">
+        <v>-0.006945198468940816</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="B496" t="n">
+        <v>89.85427920749521</v>
+      </c>
+      <c r="C496" t="n">
+        <v>89.87840682067417</v>
+      </c>
+      <c r="D496" t="n">
+        <v>-0.02412761317896184</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" t="n">
+        <v>89.88431839646005</v>
+      </c>
+      <c r="C497" t="n">
+        <v>89.83044655200867</v>
+      </c>
+      <c r="D497" t="n">
+        <v>0.05387184445137905</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B498" t="n">
+        <v>90.85962125581759</v>
+      </c>
+      <c r="C498" t="n">
+        <v>90.95379658680817</v>
+      </c>
+      <c r="D498" t="n">
+        <v>-0.09417533099058062</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B499" t="n">
+        <v>90.88196577589331</v>
+      </c>
+      <c r="C499" t="n">
+        <v>90.96404872447992</v>
+      </c>
+      <c r="D499" t="n">
+        <v>-0.08208294858661702</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="B500" t="n">
+        <v>90.91562547880157</v>
+      </c>
+      <c r="C500" t="n">
+        <v>90.91697857725269</v>
+      </c>
+      <c r="D500" t="n">
+        <v>-0.001353098451119195</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>499</v>
+      </c>
+      <c r="B501" t="n">
+        <v>90.96330740005757</v>
+      </c>
+      <c r="C501" t="n">
+        <v>90.99906865676721</v>
+      </c>
+      <c r="D501" t="n">
+        <v>-0.03576125670963393</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="B502" t="n">
+        <v>90.96886343918311</v>
+      </c>
+      <c r="C502" t="n">
+        <v>90.98096354170431</v>
+      </c>
+      <c r="D502" t="n">
+        <v>-0.01210010252120242</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="B503" t="n">
+        <v>90.97864242123376</v>
+      </c>
+      <c r="C503" t="n">
+        <v>91.00588073268223</v>
+      </c>
+      <c r="D503" t="n">
+        <v>-0.02723831144847111</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="B504" t="n">
+        <v>91.3206625894159</v>
+      </c>
+      <c r="C504" t="n">
+        <v>91.49574465782041</v>
+      </c>
+      <c r="D504" t="n">
+        <v>-0.1750820684045067</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B505" t="n">
+        <v>91.42222524487751</v>
+      </c>
+      <c r="C505" t="n">
+        <v>91.48025708057277</v>
+      </c>
+      <c r="D505" t="n">
+        <v>-0.05803183569526027</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="n">
+        <v>504</v>
+      </c>
+      <c r="B506" t="n">
+        <v>91.42682337555981</v>
+      </c>
+      <c r="C506" t="n">
+        <v>91.49694042543015</v>
+      </c>
+      <c r="D506" t="n">
+        <v>-0.07011704987034761</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="n">
+        <v>505</v>
+      </c>
+      <c r="B507" t="n">
+        <v>91.43153467107747</v>
+      </c>
+      <c r="C507" t="n">
+        <v>91.4424117023631</v>
+      </c>
+      <c r="D507" t="n">
+        <v>-0.01087703128563078</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="B508" t="n">
+        <v>91.44202895514758</v>
+      </c>
+      <c r="C508" t="n">
+        <v>91.47904453869307</v>
+      </c>
+      <c r="D508" t="n">
+        <v>-0.03701558354549661</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="n">
+        <v>507</v>
+      </c>
+      <c r="B509" t="n">
+        <v>91.45426632116477</v>
+      </c>
+      <c r="C509" t="n">
+        <v>91.46342349503361</v>
+      </c>
+      <c r="D509" t="n">
+        <v>-0.00915717386884296</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="n">
+        <v>508</v>
+      </c>
+      <c r="B510" t="n">
+        <v>91.46617115195306</v>
+      </c>
+      <c r="C510" t="n">
+        <v>91.47180610377411</v>
+      </c>
+      <c r="D510" t="n">
+        <v>-0.005634951821051004</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="n">
+        <v>509</v>
+      </c>
+      <c r="B511" t="n">
+        <v>91.46793852813352</v>
+      </c>
+      <c r="C511" t="n">
+        <v>91.49878956625578</v>
+      </c>
+      <c r="D511" t="n">
+        <v>-0.03085103812226464</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="n">
+        <v>510</v>
+      </c>
+      <c r="B512" t="n">
+        <v>91.47224101563907</v>
+      </c>
+      <c r="C512" t="n">
+        <v>91.48963518044795</v>
+      </c>
+      <c r="D512" t="n">
+        <v>-0.01739416480887712</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="n">
+        <v>511</v>
+      </c>
+      <c r="B513" t="n">
+        <v>91.48043729701061</v>
+      </c>
+      <c r="C513" t="n">
+        <v>91.50760026513059</v>
+      </c>
+      <c r="D513" t="n">
+        <v>-0.0271629681199812</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="B514" t="n">
+        <v>91.48497222885102</v>
+      </c>
+      <c r="C514" t="n">
+        <v>91.48994344332711</v>
+      </c>
+      <c r="D514" t="n">
+        <v>-0.004971214476086061</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="n">
+        <v>513</v>
+      </c>
+      <c r="B515" t="n">
+        <v>91.48722030868682</v>
+      </c>
+      <c r="C515" t="n">
+        <v>91.50756365363438</v>
+      </c>
+      <c r="D515" t="n">
+        <v>-0.02034334494756251</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="n">
+        <v>514</v>
+      </c>
+      <c r="B516" t="n">
+        <v>91.90437659935859</v>
+      </c>
+      <c r="C516" t="n">
+        <v>91.98820382512724</v>
+      </c>
+      <c r="D516" t="n">
+        <v>-0.08382722576865831</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="B517" t="n">
+        <v>91.91879571052451</v>
+      </c>
+      <c r="C517" t="n">
+        <v>92.00996694739342</v>
+      </c>
+      <c r="D517" t="n">
+        <v>-0.09117123686891659</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="n">
+        <v>516</v>
+      </c>
+      <c r="B518" t="n">
+        <v>91.92131787924903</v>
+      </c>
+      <c r="C518" t="n">
+        <v>91.92201076441671</v>
+      </c>
+      <c r="D518" t="n">
+        <v>-0.0006928851676804015</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="n">
+        <v>517</v>
+      </c>
+      <c r="B519" t="n">
+        <v>91.92297818576917</v>
+      </c>
+      <c r="C519" t="n">
+        <v>91.94023136429277</v>
+      </c>
+      <c r="D519" t="n">
+        <v>-0.0172531785236032</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="n">
+        <v>518</v>
+      </c>
+      <c r="B520" t="n">
+        <v>91.92533888378676</v>
+      </c>
+      <c r="C520" t="n">
+        <v>92.04055466437586</v>
+      </c>
+      <c r="D520" t="n">
+        <v>-0.1152157805890965</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="n">
+        <v>519</v>
+      </c>
+      <c r="B521" t="n">
+        <v>91.985414425169</v>
+      </c>
+      <c r="C521" t="n">
+        <v>91.99485236094591</v>
+      </c>
+      <c r="D521" t="n">
+        <v>-0.009437935776915651</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="B522" t="n">
+        <v>91.99370201134472</v>
+      </c>
+      <c r="C522" t="n">
+        <v>91.99407436083033</v>
+      </c>
+      <c r="D522" t="n">
+        <v>-0.0003723494856018306</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="B523" t="n">
+        <v>91.99485954126087</v>
+      </c>
+      <c r="C523" t="n">
+        <v>92.03351491799711</v>
+      </c>
+      <c r="D523" t="n">
+        <v>-0.03865537673624431</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n">
+        <v>522</v>
+      </c>
+      <c r="B524" t="n">
+        <v>92.01534119005106</v>
+      </c>
+      <c r="C524" t="n">
+        <v>92.02667072139387</v>
+      </c>
+      <c r="D524" t="n">
+        <v>-0.01132953134280967</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="n">
+        <v>523</v>
+      </c>
+      <c r="B525" t="n">
+        <v>92.03742780233395</v>
+      </c>
+      <c r="C525" t="n">
+        <v>92.04149306125566</v>
+      </c>
+      <c r="D525" t="n">
+        <v>-0.004065258921713166</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="B526" t="n">
+        <v>92.04198367505185</v>
+      </c>
+      <c r="C526" t="n">
+        <v>92.04332350726223</v>
+      </c>
+      <c r="D526" t="n">
+        <v>-0.001339832210376812</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="n">
+        <v>525</v>
+      </c>
+      <c r="B527" t="n">
+        <v>92.22004647400135</v>
+      </c>
+      <c r="C527" t="n">
+        <v>92.03570590144766</v>
+      </c>
+      <c r="D527" t="n">
+        <v>0.184340572553694</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="n">
+        <v>526</v>
+      </c>
+      <c r="B528" t="n">
+        <v>95.38648589603449</v>
+      </c>
+      <c r="C528" t="n">
+        <v>95.46795892969396</v>
+      </c>
+      <c r="D528" t="n">
+        <v>-0.08147303365947778</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="B529" t="n">
+        <v>95.39337758099614</v>
+      </c>
+      <c r="C529" t="n">
+        <v>95.39349412918057</v>
+      </c>
+      <c r="D529" t="n">
+        <v>-0.0001165481844225269</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="B530" t="n">
+        <v>95.40270463638487</v>
+      </c>
+      <c r="C530" t="n">
+        <v>95.46092202934537</v>
+      </c>
+      <c r="D530" t="n">
+        <v>-0.05821739296050055</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="B531" t="n">
+        <v>95.40340218906938</v>
+      </c>
+      <c r="C531" t="n">
+        <v>95.47962310622025</v>
+      </c>
+      <c r="D531" t="n">
+        <v>-0.07622091715086299</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="B532" t="n">
+        <v>95.40668504461212</v>
+      </c>
+      <c r="C532" t="n">
+        <v>95.41176739988229</v>
+      </c>
+      <c r="D532" t="n">
+        <v>-0.005082355270175754</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="n">
+        <v>531</v>
+      </c>
+      <c r="B533" t="n">
+        <v>95.42114441537181</v>
+      </c>
+      <c r="C533" t="n">
+        <v>95.4451040606302</v>
+      </c>
+      <c r="D533" t="n">
+        <v>-0.02395964525838679</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="n">
+        <v>532</v>
+      </c>
+      <c r="B534" t="n">
+        <v>95.42409090903895</v>
+      </c>
+      <c r="C534" t="n">
+        <v>95.46003589249857</v>
+      </c>
+      <c r="D534" t="n">
+        <v>-0.03594498345961483</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="B535" t="n">
+        <v>95.4373035074166</v>
+      </c>
+      <c r="C535" t="n">
+        <v>95.49323613544517</v>
+      </c>
+      <c r="D535" t="n">
+        <v>-0.05593262802857168</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="B536" t="n">
+        <v>95.44505453951989</v>
+      </c>
+      <c r="C536" t="n">
+        <v>95.50012971970295</v>
+      </c>
+      <c r="D536" t="n">
+        <v>-0.05507518018306712</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B537" t="n">
+        <v>95.46961434632131</v>
+      </c>
+      <c r="C537" t="n">
+        <v>95.51732494744304</v>
+      </c>
+      <c r="D537" t="n">
+        <v>-0.04771060112173586</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="B538" t="n">
+        <v>95.47932125028655</v>
+      </c>
+      <c r="C538" t="n">
+        <v>95.51784903500744</v>
+      </c>
+      <c r="D538" t="n">
+        <v>-0.03852778472089824</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="B539" t="n">
+        <v>95.48101570894997</v>
+      </c>
+      <c r="C539" t="n">
+        <v>95.51967591889206</v>
+      </c>
+      <c r="D539" t="n">
+        <v>-0.03866020994209407</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="B540" t="n">
+        <v>95.49828375461824</v>
+      </c>
+      <c r="C540" t="n">
+        <v>95.4881252511039</v>
+      </c>
+      <c r="D540" t="n">
+        <v>0.01015850351434722</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="B541" t="n">
+        <v>95.50208326931305</v>
+      </c>
+      <c r="C541" t="n">
+        <v>95.51476007170272</v>
+      </c>
+      <c r="D541" t="n">
+        <v>-0.01267680238967728</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="B542" t="n">
+        <v>95.985437011155</v>
+      </c>
+      <c r="C542" t="n">
+        <v>96.10804978887839</v>
+      </c>
+      <c r="D542" t="n">
+        <v>-0.1226127777233899</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="B543" t="n">
+        <v>95.9907639279412</v>
+      </c>
+      <c r="C543" t="n">
+        <v>96.09079482673346</v>
+      </c>
+      <c r="D543" t="n">
+        <v>-0.1000308987922551</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="B544" t="n">
+        <v>95.9973094518849</v>
+      </c>
+      <c r="C544" t="n">
+        <v>96.06483757229543</v>
+      </c>
+      <c r="D544" t="n">
+        <v>-0.06752812041052891</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="B545" t="n">
+        <v>96.03746352335652</v>
+      </c>
+      <c r="C545" t="n">
+        <v>96.13275231688031</v>
+      </c>
+      <c r="D545" t="n">
+        <v>-0.09528879352379249</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="B546" t="n">
+        <v>96.04192521306085</v>
+      </c>
+      <c r="C546" t="n">
+        <v>96.10156871735373</v>
+      </c>
+      <c r="D546" t="n">
+        <v>-0.0596435042928789</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="n">
+        <v>545</v>
+      </c>
+      <c r="B547" t="n">
+        <v>96.04611792651089</v>
+      </c>
+      <c r="C547" t="n">
+        <v>96.06936077880658</v>
+      </c>
+      <c r="D547" t="n">
+        <v>-0.02324285229569512</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="B548" t="n">
+        <v>96.05342853643275</v>
+      </c>
+      <c r="C548" t="n">
+        <v>96.09580490039058</v>
+      </c>
+      <c r="D548" t="n">
+        <v>-0.04237636395782829</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="B549" t="n">
+        <v>96.05828329255286</v>
+      </c>
+      <c r="C549" t="n">
+        <v>96.06797024542207</v>
+      </c>
+      <c r="D549" t="n">
+        <v>-0.009686952869216725</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="B550" t="n">
+        <v>96.0616528243588</v>
+      </c>
+      <c r="C550" t="n">
+        <v>96.13993071320988</v>
+      </c>
+      <c r="D550" t="n">
+        <v>-0.07827788885107623</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="B551" t="n">
+        <v>96.06474129166509</v>
+      </c>
+      <c r="C551" t="n">
+        <v>96.09050017221369</v>
+      </c>
+      <c r="D551" t="n">
+        <v>-0.02575888054860798</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="B552" t="n">
+        <v>96.08561871179093</v>
+      </c>
+      <c r="C552" t="n">
+        <v>96.11798442261922</v>
+      </c>
+      <c r="D552" t="n">
+        <v>-0.03236571082828732</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="B553" t="n">
+        <v>96.095439941102</v>
+      </c>
+      <c r="C553" t="n">
+        <v>96.12753237844656</v>
+      </c>
+      <c r="D553" t="n">
+        <v>-0.03209243734455924</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="n">
+        <v>552</v>
+      </c>
+      <c r="B554" t="n">
+        <v>96.10190655853204</v>
+      </c>
+      <c r="C554" t="n">
+        <v>96.13146882887727</v>
+      </c>
+      <c r="D554" t="n">
+        <v>-0.02956227034523806</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="n">
+        <v>553</v>
+      </c>
+      <c r="B555" t="n">
+        <v>96.12648161445695</v>
+      </c>
+      <c r="C555" t="n">
+        <v>96.13696756531755</v>
+      </c>
+      <c r="D555" t="n">
+        <v>-0.01048595086059834</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="n">
+        <v>554</v>
+      </c>
+      <c r="B556" t="n">
+        <v>96.34599808616912</v>
+      </c>
+      <c r="C556" t="n">
+        <v>96.13327251100765</v>
+      </c>
+      <c r="D556" t="n">
+        <v>0.2127255751614712</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="n">
+        <v>555</v>
+      </c>
+      <c r="B557" t="n">
+        <v>96.50952434715039</v>
+      </c>
+      <c r="C557" t="n">
+        <v>96.55662100067418</v>
+      </c>
+      <c r="D557" t="n">
+        <v>-0.04709665352379488</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="n">
+        <v>556</v>
+      </c>
+      <c r="B558" t="n">
+        <v>96.51990877614546</v>
+      </c>
+      <c r="C558" t="n">
+        <v>96.62910108681524</v>
+      </c>
+      <c r="D558" t="n">
+        <v>-0.1091923106697834</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="n">
+        <v>557</v>
+      </c>
+      <c r="B559" t="n">
+        <v>96.52235544077502</v>
+      </c>
+      <c r="C559" t="n">
+        <v>96.57190329016454</v>
+      </c>
+      <c r="D559" t="n">
+        <v>-0.04954784938952628</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="B560" t="n">
+        <v>96.53558230541623</v>
+      </c>
+      <c r="C560" t="n">
+        <v>96.59941835161889</v>
+      </c>
+      <c r="D560" t="n">
+        <v>-0.06383604620266681</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="n">
+        <v>559</v>
+      </c>
+      <c r="B561" t="n">
+        <v>96.54925129665978</v>
+      </c>
+      <c r="C561" t="n">
+        <v>96.62852853715923</v>
+      </c>
+      <c r="D561" t="n">
+        <v>-0.07927724049945084</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="B562" t="n">
+        <v>96.55846630152323</v>
+      </c>
+      <c r="C562" t="n">
+        <v>96.64456415027925</v>
+      </c>
+      <c r="D562" t="n">
+        <v>-0.086097848756026</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="n">
+        <v>561</v>
+      </c>
+      <c r="B563" t="n">
+        <v>96.60165390357803</v>
+      </c>
+      <c r="C563" t="n">
+        <v>96.64872738414959</v>
+      </c>
+      <c r="D563" t="n">
+        <v>-0.04707348057156935</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="n">
+        <v>562</v>
+      </c>
+      <c r="B564" t="n">
+        <v>96.64499842737916</v>
+      </c>
+      <c r="C564" t="n">
+        <v>96.65197957215936</v>
+      </c>
+      <c r="D564" t="n">
+        <v>-0.006981144780198179</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="n">
+        <v>563</v>
+      </c>
+      <c r="B565" t="n">
+        <v>97.52877653404371</v>
+      </c>
+      <c r="C565" t="n">
+        <v>97.60294867059639</v>
+      </c>
+      <c r="D565" t="n">
+        <v>-0.07417213655267574</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="n">
+        <v>564</v>
+      </c>
+      <c r="B566" t="n">
+        <v>97.53605076703313</v>
+      </c>
+      <c r="C566" t="n">
+        <v>97.65183390849195</v>
+      </c>
+      <c r="D566" t="n">
+        <v>-0.1157831414588202</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="n">
+        <v>565</v>
+      </c>
+      <c r="B567" t="n">
+        <v>97.56248554121026</v>
+      </c>
+      <c r="C567" t="n">
+        <v>97.56587156399578</v>
+      </c>
+      <c r="D567" t="n">
+        <v>-0.003386022785520026</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="n">
+        <v>566</v>
+      </c>
+      <c r="B568" t="n">
+        <v>97.56897109092249</v>
+      </c>
+      <c r="C568" t="n">
+        <v>97.57839080678643</v>
+      </c>
+      <c r="D568" t="n">
+        <v>-0.009419715863941747</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="n">
+        <v>567</v>
+      </c>
+      <c r="B569" t="n">
+        <v>97.56923163990689</v>
+      </c>
+      <c r="C569" t="n">
+        <v>97.57473042474437</v>
+      </c>
+      <c r="D569" t="n">
+        <v>-0.005498784837485005</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="n">
+        <v>568</v>
+      </c>
+      <c r="B570" t="n">
+        <v>97.57050096665358</v>
+      </c>
+      <c r="C570" t="n">
+        <v>97.67179701357398</v>
+      </c>
+      <c r="D570" t="n">
+        <v>-0.1012960469203961</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="n">
+        <v>569</v>
+      </c>
+      <c r="B571" t="n">
+        <v>97.57275188790044</v>
+      </c>
+      <c r="C571" t="n">
+        <v>97.64766567254023</v>
+      </c>
+      <c r="D571" t="n">
+        <v>-0.07491378463979004</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="n">
+        <v>570</v>
+      </c>
+      <c r="B572" t="n">
+        <v>97.58222023067901</v>
+      </c>
+      <c r="C572" t="n">
+        <v>97.64714399492125</v>
+      </c>
+      <c r="D572" t="n">
+        <v>-0.06492376424223778</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="n">
+        <v>571</v>
+      </c>
+      <c r="B573" t="n">
+        <v>97.58718490368005</v>
+      </c>
+      <c r="C573" t="n">
+        <v>97.6175022798195</v>
+      </c>
+      <c r="D573" t="n">
+        <v>-0.0303173761394504</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="n">
+        <v>572</v>
+      </c>
+      <c r="B574" t="n">
+        <v>97.59813193220499</v>
+      </c>
+      <c r="C574" t="n">
+        <v>97.66095723232992</v>
+      </c>
+      <c r="D574" t="n">
+        <v>-0.06282530012492771</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="n">
+        <v>573</v>
+      </c>
+      <c r="B575" t="n">
+        <v>97.62334294453109</v>
+      </c>
+      <c r="C575" t="n">
+        <v>97.60000359787949</v>
+      </c>
+      <c r="D575" t="n">
+        <v>0.02333934665159632</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="n">
+        <v>574</v>
+      </c>
+      <c r="B576" t="n">
+        <v>97.63426043242639</v>
+      </c>
+      <c r="C576" t="n">
+        <v>97.64459194417751</v>
+      </c>
+      <c r="D576" t="n">
+        <v>-0.01033151175111868</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="n">
+        <v>575</v>
+      </c>
+      <c r="B577" t="n">
+        <v>97.64767765213379</v>
+      </c>
+      <c r="C577" t="n">
+        <v>97.67879234956574</v>
+      </c>
+      <c r="D577" t="n">
+        <v>-0.03111469743194561</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="n">
+        <v>576</v>
+      </c>
+      <c r="B578" t="n">
+        <v>97.65084023879218</v>
+      </c>
+      <c r="C578" t="n">
+        <v>97.65264149552931</v>
+      </c>
+      <c r="D578" t="n">
+        <v>-0.00180125673712439</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n">
+        <v>577</v>
+      </c>
+      <c r="B579" t="n">
+        <v>97.65746957236776</v>
+      </c>
+      <c r="C579" t="n">
+        <v>97.67657304084055</v>
+      </c>
+      <c r="D579" t="n">
+        <v>-0.01910346847279243</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="B580" t="n">
+        <v>99.50913666513576</v>
+      </c>
+      <c r="C580" t="n">
+        <v>99.58334596065336</v>
+      </c>
+      <c r="D580" t="n">
+        <v>-0.0742092955176048</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>579</v>
+      </c>
+      <c r="B581" t="n">
+        <v>99.52790985561326</v>
+      </c>
+      <c r="C581" t="n">
+        <v>99.57225094864647</v>
+      </c>
+      <c r="D581" t="n">
+        <v>-0.04434109303321065</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>580</v>
+      </c>
+      <c r="B582" t="n">
+        <v>99.5358134221901</v>
+      </c>
+      <c r="C582" t="n">
+        <v>99.62850648291042</v>
+      </c>
+      <c r="D582" t="n">
+        <v>-0.0926930607203218</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="B583" t="n">
+        <v>99.53995835215851</v>
+      </c>
+      <c r="C583" t="n">
+        <v>99.64949947481722</v>
+      </c>
+      <c r="D583" t="n">
+        <v>-0.1095411226587117</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="B584" t="n">
+        <v>99.54002730906041</v>
+      </c>
+      <c r="C584" t="n">
+        <v>99.54955602500482</v>
+      </c>
+      <c r="D584" t="n">
+        <v>-0.009528715944412625</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="B585" t="n">
+        <v>99.54677874506767</v>
+      </c>
+      <c r="C585" t="n">
+        <v>99.639536228106</v>
+      </c>
+      <c r="D585" t="n">
+        <v>-0.09275748303832643</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="B586" t="n">
+        <v>99.55031234098459</v>
+      </c>
+      <c r="C586" t="n">
+        <v>99.56018676897631</v>
+      </c>
+      <c r="D586" t="n">
+        <v>-0.009874427991718449</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="B587" t="n">
+        <v>99.56023496032343</v>
+      </c>
+      <c r="C587" t="n">
+        <v>99.59397708703329</v>
+      </c>
+      <c r="D587" t="n">
+        <v>-0.03374212670986765</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="B588" t="n">
+        <v>99.57919897706945</v>
+      </c>
+      <c r="C588" t="n">
+        <v>99.62397668205821</v>
+      </c>
+      <c r="D588" t="n">
+        <v>-0.04477770498876055</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="B589" t="n">
+        <v>99.58789267194999</v>
+      </c>
+      <c r="C589" t="n">
+        <v>99.63797303911031</v>
+      </c>
+      <c r="D589" t="n">
+        <v>-0.05008036716031938</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
+        <v>588</v>
+      </c>
+      <c r="B590" t="n">
+        <v>99.60640606035514</v>
+      </c>
+      <c r="C590" t="n">
+        <v>99.60683411107456</v>
+      </c>
+      <c r="D590" t="n">
+        <v>-0.0004280507194209804</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
+        <v>589</v>
+      </c>
+      <c r="B591" t="n">
+        <v>99.62579257724812</v>
+      </c>
+      <c r="C591" t="n">
+        <v>99.62912971506893</v>
+      </c>
+      <c r="D591" t="n">
+        <v>-0.003337137820807357</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="B592" t="n">
+        <v>99.63652526709723</v>
+      </c>
+      <c r="C592" t="n">
+        <v>99.65158338130988</v>
+      </c>
+      <c r="D592" t="n">
+        <v>-0.0150581142126498</v>
       </c>
     </row>
   </sheetData>
